--- a/app/data/241220_NfLPLADx_Plasma_demo/251006/241220_NfLPLADx_Plasma_demo.xlsx
+++ b/app/data/241220_NfLPLADx_Plasma_demo/251006/241220_NfLPLADx_Plasma_demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wehieduau-my.sharepoint.com/personal/smith_j_wehi_edu_au/Documents/Documents/Testing-Git/proxipal/app/data/251006/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wehieduau-my.sharepoint.com/personal/smith_j_wehi_edu_au/Documents/Documents/Testing-Git/proxipal/app/data/241220_NfLPLADx_Plasma_demo/251006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{E06BAA93-A5C0-8B44-A78C-82EB619886CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{428E8EEF-A7FC-494B-AD9E-C80F4BF1279A}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{E06BAA93-A5C0-8B44-A78C-82EB619886CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE4EFE1D-4C2D-497D-8672-72AE82B4B323}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4D99390B-9292-4C1E-BC74-DE0E0B893356}"/>
   </bookViews>
@@ -90,7 +90,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    sample_ids should be arranged here. They will autofill the sample table.</t>
+    sample_ids should be arranged here. 
+sample_ids should be TEXT: i.e. NOT numbers, n/a, None or left empty
+They will autofill the sample table.</t>
       </text>
     </comment>
     <comment ref="AK4" authorId="4" shapeId="0" xr:uid="{57EF98F1-CE4B-4EF9-A8E4-58EB34BE3BFA}">
@@ -268,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="226">
   <si>
     <t>Experiment</t>
   </si>
@@ -892,9 +894,6 @@
   </si>
   <si>
     <t>NFL-QC-M</t>
-  </si>
-  <si>
-    <t>n/a</t>
   </si>
   <si>
     <t>#004</t>
@@ -1714,42 +1713,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1806,13 +1770,2973 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{2A611197-FBC9-CE4F-A83B-A056C6DF78A3}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="101">
+  <dxfs count="520">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2522,11 +5446,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFFF7C80"/>
       <color rgb="FFFFDBE5"/>
-      <color rgb="FFFF9999"/>
       <color rgb="FFE9E2F4"/>
       <color rgb="FFFAFFCD"/>
-      <color rgb="FFFF7C80"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5659,7 +8583,9 @@
 Add further description if desired (i.e. "I swapped the salts" or an alternative materials list. This is flexible)</text>
   </threadedComment>
   <threadedComment ref="W4" dT="2023-04-15T10:37:51.69" personId="{D5BACA86-35F9-4FE5-8317-E42FE715FDEB}" id="{745CE211-12B6-4C9A-B4BA-BB849EB360CD}">
-    <text>sample_ids should be arranged here. They will autofill the sample table.</text>
+    <text>sample_ids should be arranged here. 
+sample_ids should be TEXT: i.e. NOT numbers, n/a, None or left empty
+They will autofill the sample table.</text>
   </threadedComment>
   <threadedComment ref="AK4" dT="2023-04-15T10:45:39.99" personId="{D5BACA86-35F9-4FE5-8317-E42FE715FDEB}" id="{57EF98F1-CE4B-4EF9-A8E4-58EB34BE3BFA}">
     <text>Free writing section</text>
@@ -5750,7 +8676,7 @@
   <dimension ref="A1:AR112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5784,7 +8710,7 @@
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V1" s="2"/>
     </row>
@@ -5794,7 +8720,7 @@
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -5804,28 +8730,28 @@
         <v>144</v>
       </c>
       <c r="B3" s="38"/>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
     </row>
     <row r="4" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="38"/>
-      <c r="C4" s="157" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="157"/>
+      <c r="C4" s="147" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="147"/>
       <c r="W4" s="57" t="s">
         <v>3</v>
       </c>
@@ -5936,10 +8862,10 @@
       <c r="AI5" s="60">
         <v>12</v>
       </c>
-      <c r="AK5" s="165" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL5" s="160"/>
+      <c r="AK5" s="155" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL5" s="150"/>
       <c r="AM5" s="34"/>
       <c r="AN5" s="34"/>
       <c r="AO5" s="34"/>
@@ -5955,7 +8881,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>168</v>
@@ -6019,44 +8945,44 @@
       <c r="W6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="140" t="s">
+      <c r="X6" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="Y6" s="140" t="s">
+      <c r="Y6" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="Z6" s="141" t="s">
+      <c r="Z6" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="AA6" s="141" t="s">
+      <c r="AA6" s="158" t="s">
         <v>177</v>
       </c>
-      <c r="AB6" s="142" t="s">
+      <c r="AB6" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="AC6" s="142" t="s">
+      <c r="AC6" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="AD6" s="143" t="s">
+      <c r="AD6" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="AE6" s="143" t="s">
+      <c r="AE6" s="160" t="s">
         <v>185</v>
       </c>
-      <c r="AF6" s="144" t="s">
+      <c r="AF6" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="AG6" s="144" t="s">
+      <c r="AG6" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="AH6" s="145" t="s">
+      <c r="AH6" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="AI6" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK6" s="159" t="s">
-        <v>210</v>
+      <c r="AI6" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK6" s="149" t="s">
+        <v>209</v>
       </c>
       <c r="AL6" s="34"/>
       <c r="AM6" s="34"/>
@@ -6074,7 +9000,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>168</v>
@@ -6132,47 +9058,47 @@
       <c r="W7" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="146" t="s">
+      <c r="X7" s="163" t="s">
         <v>204</v>
       </c>
-      <c r="Y7" s="146" t="s">
+      <c r="Y7" s="163" t="s">
         <v>204</v>
       </c>
-      <c r="Z7" s="141" t="s">
+      <c r="Z7" s="158" t="s">
         <v>178</v>
       </c>
-      <c r="AA7" s="141" t="s">
+      <c r="AA7" s="158" t="s">
         <v>178</v>
       </c>
-      <c r="AB7" s="142" t="s">
+      <c r="AB7" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="AC7" s="142" t="s">
+      <c r="AC7" s="159" t="s">
         <v>159</v>
       </c>
-      <c r="AD7" s="143" t="s">
+      <c r="AD7" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="AE7" s="143" t="s">
+      <c r="AE7" s="160" t="s">
         <v>186</v>
       </c>
-      <c r="AF7" s="144" t="s">
+      <c r="AF7" s="161" t="s">
         <v>194</v>
       </c>
-      <c r="AG7" s="144" t="s">
+      <c r="AG7" s="161" t="s">
         <v>194</v>
       </c>
-      <c r="AH7" s="145" t="s">
+      <c r="AH7" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="AI7" s="151" t="s">
-        <v>206</v>
+      <c r="AI7" s="141" t="s">
+        <v>225</v>
       </c>
       <c r="AJ7" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="AK7" s="159" t="s">
-        <v>211</v>
+      <c r="AK7" s="149" t="s">
+        <v>210</v>
       </c>
       <c r="AL7" s="34"/>
       <c r="AM7" s="34"/>
@@ -6190,7 +9116,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>168</v>
@@ -6248,44 +9174,44 @@
       <c r="W8" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="X8" s="140" t="s">
+      <c r="X8" s="157" t="s">
         <v>205</v>
       </c>
-      <c r="Y8" s="140" t="s">
+      <c r="Y8" s="157" t="s">
         <v>205</v>
       </c>
-      <c r="Z8" s="141" t="s">
+      <c r="Z8" s="158" t="s">
         <v>179</v>
       </c>
-      <c r="AA8" s="141" t="s">
+      <c r="AA8" s="158" t="s">
         <v>179</v>
       </c>
-      <c r="AB8" s="142" t="s">
+      <c r="AB8" s="159" t="s">
         <v>160</v>
       </c>
-      <c r="AC8" s="142" t="s">
+      <c r="AC8" s="159" t="s">
         <v>160</v>
       </c>
-      <c r="AD8" s="143" t="s">
+      <c r="AD8" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="AE8" s="143" t="s">
+      <c r="AE8" s="160" t="s">
         <v>187</v>
       </c>
-      <c r="AF8" s="144" t="s">
+      <c r="AF8" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="AG8" s="144" t="s">
+      <c r="AG8" s="161" t="s">
         <v>195</v>
       </c>
-      <c r="AH8" s="145" t="s">
+      <c r="AH8" s="162" t="s">
         <v>202</v>
       </c>
-      <c r="AI8" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK8" s="159" t="s">
-        <v>212</v>
+      <c r="AI8" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK8" s="149" t="s">
+        <v>211</v>
       </c>
       <c r="AL8" s="34"/>
       <c r="AM8" s="34"/>
@@ -6303,7 +9229,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>168</v>
@@ -6361,44 +9287,44 @@
       <c r="W9" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="X9" s="143" t="s">
+      <c r="X9" s="160" t="s">
         <v>172</v>
       </c>
-      <c r="Y9" s="143" t="s">
+      <c r="Y9" s="160" t="s">
         <v>172</v>
       </c>
-      <c r="Z9" s="141" t="s">
+      <c r="Z9" s="158" t="s">
         <v>180</v>
       </c>
-      <c r="AA9" s="141" t="s">
+      <c r="AA9" s="158" t="s">
         <v>180</v>
       </c>
-      <c r="AB9" s="142" t="s">
+      <c r="AB9" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="AC9" s="142" t="s">
+      <c r="AC9" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="AD9" s="143" t="s">
+      <c r="AD9" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="AE9" s="143" t="s">
+      <c r="AE9" s="160" t="s">
         <v>188</v>
       </c>
-      <c r="AF9" s="144" t="s">
+      <c r="AF9" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="AG9" s="144" t="s">
+      <c r="AG9" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="AH9" s="145" t="s">
+      <c r="AH9" s="162" t="s">
         <v>202</v>
       </c>
-      <c r="AI9" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK9" s="159" t="s">
-        <v>220</v>
+      <c r="AI9" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK9" s="149" t="s">
+        <v>219</v>
       </c>
       <c r="AL9" s="34"/>
       <c r="AM9" s="34"/>
@@ -6416,7 +9342,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>168</v>
@@ -6474,44 +9400,44 @@
       <c r="W10" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="X10" s="143" t="s">
+      <c r="X10" s="160" t="s">
         <v>173</v>
       </c>
-      <c r="Y10" s="143" t="s">
+      <c r="Y10" s="160" t="s">
         <v>173</v>
       </c>
-      <c r="Z10" s="141" t="s">
+      <c r="Z10" s="158" t="s">
         <v>181</v>
       </c>
-      <c r="AA10" s="141" t="s">
+      <c r="AA10" s="158" t="s">
         <v>181</v>
       </c>
-      <c r="AB10" s="142" t="s">
+      <c r="AB10" s="159" t="s">
         <v>162</v>
       </c>
-      <c r="AC10" s="142" t="s">
+      <c r="AC10" s="159" t="s">
         <v>162</v>
       </c>
-      <c r="AD10" s="143" t="s">
+      <c r="AD10" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="AE10" s="143" t="s">
+      <c r="AE10" s="160" t="s">
         <v>189</v>
       </c>
-      <c r="AF10" s="144" t="s">
+      <c r="AF10" s="161" t="s">
         <v>197</v>
       </c>
-      <c r="AG10" s="144" t="s">
+      <c r="AG10" s="161" t="s">
         <v>197</v>
       </c>
-      <c r="AH10" s="140" t="s">
+      <c r="AH10" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="AI10" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK10" s="159" t="s">
-        <v>221</v>
+      <c r="AI10" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK10" s="149" t="s">
+        <v>220</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="34"/>
@@ -6529,7 +9455,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>168</v>
@@ -6587,44 +9513,44 @@
       <c r="W11" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="143" t="s">
+      <c r="X11" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="Y11" s="143" t="s">
+      <c r="Y11" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="Z11" s="141" t="s">
+      <c r="Z11" s="158" t="s">
         <v>182</v>
       </c>
-      <c r="AA11" s="141" t="s">
+      <c r="AA11" s="158" t="s">
         <v>182</v>
       </c>
-      <c r="AB11" s="142" t="s">
+      <c r="AB11" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="AC11" s="142" t="s">
+      <c r="AC11" s="159" t="s">
         <v>163</v>
       </c>
-      <c r="AD11" s="143" t="s">
+      <c r="AD11" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="AE11" s="143" t="s">
+      <c r="AE11" s="160" t="s">
         <v>190</v>
       </c>
-      <c r="AF11" s="144" t="s">
+      <c r="AF11" s="161" t="s">
         <v>198</v>
       </c>
-      <c r="AG11" s="144" t="s">
+      <c r="AG11" s="161" t="s">
         <v>198</v>
       </c>
-      <c r="AH11" s="140" t="s">
+      <c r="AH11" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="AI11" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK11" s="159" t="s">
-        <v>219</v>
+      <c r="AI11" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK11" s="149" t="s">
+        <v>218</v>
       </c>
       <c r="AL11" s="34"/>
       <c r="AM11" s="34"/>
@@ -6642,7 +9568,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>168</v>
@@ -6700,44 +9626,44 @@
       <c r="W12" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="X12" s="140" t="s">
+      <c r="X12" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="Y12" s="140" t="s">
+      <c r="Y12" s="157" t="s">
         <v>175</v>
       </c>
-      <c r="Z12" s="141" t="s">
+      <c r="Z12" s="158" t="s">
         <v>183</v>
       </c>
-      <c r="AA12" s="141" t="s">
+      <c r="AA12" s="158" t="s">
         <v>183</v>
       </c>
-      <c r="AB12" s="142" t="s">
+      <c r="AB12" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="AC12" s="142" t="s">
+      <c r="AC12" s="159" t="s">
         <v>164</v>
       </c>
-      <c r="AD12" s="143" t="s">
+      <c r="AD12" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="AE12" s="143" t="s">
+      <c r="AE12" s="160" t="s">
         <v>191</v>
       </c>
-      <c r="AF12" s="144" t="s">
+      <c r="AF12" s="161" t="s">
         <v>199</v>
       </c>
-      <c r="AG12" s="144" t="s">
+      <c r="AG12" s="161" t="s">
         <v>199</v>
       </c>
-      <c r="AH12" s="140" t="s">
+      <c r="AH12" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="AI12" s="151" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK12" s="159" t="s">
-        <v>217</v>
+      <c r="AI12" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK12" s="149" t="s">
+        <v>216</v>
       </c>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
@@ -6755,7 +9681,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>168</v>
@@ -6813,28 +9739,28 @@
       <c r="W13" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="X13" s="152" t="s">
+      <c r="X13" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="Y13" s="152" t="s">
+      <c r="Y13" s="142" t="s">
         <v>176</v>
       </c>
-      <c r="Z13" s="153" t="s">
+      <c r="Z13" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="AA13" s="153" t="s">
+      <c r="AA13" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="AB13" s="154" t="s">
+      <c r="AB13" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="AC13" s="154" t="s">
+      <c r="AC13" s="144" t="s">
         <v>165</v>
       </c>
-      <c r="AD13" s="155" t="s">
+      <c r="AD13" s="145" t="s">
         <v>192</v>
       </c>
-      <c r="AE13" s="155" t="s">
+      <c r="AE13" s="145" t="s">
         <v>192</v>
       </c>
       <c r="AF13" s="139" t="s">
@@ -6843,14 +9769,14 @@
       <c r="AG13" s="139" t="s">
         <v>200</v>
       </c>
-      <c r="AH13" s="152" t="s">
+      <c r="AH13" s="142" t="s">
         <v>203</v>
       </c>
-      <c r="AI13" s="156" t="s">
-        <v>206</v>
-      </c>
-      <c r="AK13" s="159" t="s">
-        <v>215</v>
+      <c r="AI13" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK13" s="149" t="s">
+        <v>214</v>
       </c>
       <c r="AL13" s="34"/>
       <c r="AM13" s="34"/>
@@ -6868,7 +9794,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>168</v>
@@ -6927,15 +9853,15 @@
       <c r="Y14" s="128"/>
       <c r="Z14" s="128"/>
       <c r="AA14" s="128"/>
-      <c r="AB14" s="166"/>
-      <c r="AC14" s="166"/>
+      <c r="AB14" s="156"/>
+      <c r="AC14" s="156"/>
       <c r="AE14" s="128"/>
       <c r="AF14" s="128"/>
       <c r="AG14" s="128"/>
       <c r="AH14" s="128"/>
       <c r="AI14" s="128"/>
-      <c r="AK14" s="159" t="s">
-        <v>216</v>
+      <c r="AK14" s="149" t="s">
+        <v>215</v>
       </c>
       <c r="AL14" s="34"/>
       <c r="AM14" s="34"/>
@@ -6953,7 +9879,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>168</v>
@@ -7011,8 +9937,8 @@
       <c r="W15" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AK15" s="159" t="s">
-        <v>214</v>
+      <c r="AK15" s="149" t="s">
+        <v>213</v>
       </c>
       <c r="AL15" s="34"/>
       <c r="AM15" s="34"/>
@@ -7030,7 +9956,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>168</v>
@@ -7122,8 +10048,8 @@
       <c r="AI16" s="60">
         <v>12</v>
       </c>
-      <c r="AK16" s="159" t="s">
-        <v>213</v>
+      <c r="AK16" s="149" t="s">
+        <v>212</v>
       </c>
       <c r="AL16" s="34"/>
       <c r="AM16" s="34"/>
@@ -7141,7 +10067,7 @@
         <v>45</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>168</v>
@@ -7156,7 +10082,7 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="49" t="str">
-        <v>n/a</v>
+        <v>unused</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="19">
@@ -7199,44 +10125,44 @@
       <c r="W17" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="X17" s="147" t="s">
+      <c r="X17" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Y17" s="147" t="s">
+      <c r="Y17" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Z17" s="147" t="s">
+      <c r="Z17" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AA17" s="147" t="s">
+      <c r="AA17" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AB17" s="147" t="s">
+      <c r="AB17" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AC17" s="147" t="s">
+      <c r="AC17" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AD17" s="147" t="s">
+      <c r="AD17" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AE17" s="147" t="s">
+      <c r="AE17" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AF17" s="147" t="s">
+      <c r="AF17" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AG17" s="147" t="s">
+      <c r="AG17" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AH17" s="147" t="s">
+      <c r="AH17" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AI17" s="148" t="s">
+      <c r="AI17" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="AK17" s="159" t="s">
-        <v>218</v>
+      <c r="AK17" s="149" t="s">
+        <v>217</v>
       </c>
       <c r="AL17" s="34"/>
       <c r="AM17" s="34"/>
@@ -7254,7 +10180,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>168</v>
@@ -7318,43 +10244,43 @@
       <c r="W18" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="X18" s="147" t="s">
+      <c r="X18" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Y18" s="147" t="s">
+      <c r="Y18" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Z18" s="147" t="s">
+      <c r="Z18" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AA18" s="147" t="s">
+      <c r="AA18" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AB18" s="147" t="s">
+      <c r="AB18" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AC18" s="147" t="s">
+      <c r="AC18" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AD18" s="147" t="s">
+      <c r="AD18" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AE18" s="147" t="s">
+      <c r="AE18" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AF18" s="147" t="s">
+      <c r="AF18" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AG18" s="147" t="s">
+      <c r="AG18" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AH18" s="147" t="s">
+      <c r="AH18" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AI18" s="148" t="s">
+      <c r="AI18" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="AK18" s="159"/>
+      <c r="AK18" s="149"/>
       <c r="AL18" s="34"/>
       <c r="AM18" s="34"/>
       <c r="AN18" s="34"/>
@@ -7371,7 +10297,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>168</v>
@@ -7429,43 +10355,43 @@
       <c r="W19" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="X19" s="147" t="s">
+      <c r="X19" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Y19" s="147" t="s">
+      <c r="Y19" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Z19" s="147" t="s">
+      <c r="Z19" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AA19" s="147" t="s">
+      <c r="AA19" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AB19" s="147" t="s">
+      <c r="AB19" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AC19" s="147" t="s">
+      <c r="AC19" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AD19" s="147" t="s">
+      <c r="AD19" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AE19" s="147" t="s">
+      <c r="AE19" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AF19" s="147" t="s">
+      <c r="AF19" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AG19" s="147" t="s">
+      <c r="AG19" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AH19" s="147" t="s">
+      <c r="AH19" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AI19" s="148" t="s">
+      <c r="AI19" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="AK19" s="159"/>
+      <c r="AK19" s="149"/>
       <c r="AL19" s="34"/>
       <c r="AM19" s="34"/>
       <c r="AN19" s="34"/>
@@ -7482,7 +10408,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>168</v>
@@ -7540,43 +10466,43 @@
       <c r="W20" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="X20" s="147" t="s">
+      <c r="X20" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Y20" s="147" t="s">
+      <c r="Y20" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Z20" s="147" t="s">
+      <c r="Z20" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AA20" s="147" t="s">
+      <c r="AA20" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AB20" s="147" t="s">
+      <c r="AB20" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AC20" s="147" t="s">
+      <c r="AC20" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AD20" s="147" t="s">
+      <c r="AD20" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AE20" s="147" t="s">
+      <c r="AE20" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AF20" s="147" t="s">
+      <c r="AF20" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AG20" s="147" t="s">
+      <c r="AG20" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AH20" s="147" t="s">
+      <c r="AH20" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AI20" s="148" t="s">
+      <c r="AI20" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="AK20" s="159"/>
+      <c r="AK20" s="149"/>
       <c r="AL20" s="34"/>
       <c r="AM20" s="34"/>
       <c r="AN20" s="34"/>
@@ -7593,7 +10519,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>168</v>
@@ -7651,43 +10577,43 @@
       <c r="W21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="X21" s="147" t="s">
+      <c r="X21" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Y21" s="147" t="s">
+      <c r="Y21" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Z21" s="147" t="s">
+      <c r="Z21" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AA21" s="147" t="s">
+      <c r="AA21" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AB21" s="147" t="s">
+      <c r="AB21" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AC21" s="147" t="s">
+      <c r="AC21" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AD21" s="147" t="s">
+      <c r="AD21" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AE21" s="147" t="s">
+      <c r="AE21" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AF21" s="147" t="s">
+      <c r="AF21" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AG21" s="147" t="s">
+      <c r="AG21" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AH21" s="147" t="s">
+      <c r="AH21" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AI21" s="148" t="s">
+      <c r="AI21" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="AK21" s="159"/>
+      <c r="AK21" s="149"/>
       <c r="AL21" s="34"/>
       <c r="AM21" s="34"/>
       <c r="AN21" s="34"/>
@@ -7704,7 +10630,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>168</v>
@@ -7762,43 +10688,43 @@
       <c r="W22" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="147" t="s">
+      <c r="X22" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Y22" s="147" t="s">
+      <c r="Y22" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Z22" s="147" t="s">
+      <c r="Z22" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AA22" s="147" t="s">
+      <c r="AA22" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AB22" s="147" t="s">
+      <c r="AB22" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AC22" s="147" t="s">
+      <c r="AC22" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AD22" s="147" t="s">
+      <c r="AD22" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AE22" s="147" t="s">
+      <c r="AE22" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AF22" s="147" t="s">
+      <c r="AF22" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AG22" s="147" t="s">
+      <c r="AG22" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AH22" s="147" t="s">
+      <c r="AH22" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AI22" s="148" t="s">
+      <c r="AI22" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="AK22" s="159"/>
+      <c r="AK22" s="149"/>
       <c r="AL22" s="34"/>
       <c r="AM22" s="34"/>
       <c r="AN22" s="34"/>
@@ -7815,7 +10741,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>168</v>
@@ -7873,43 +10799,43 @@
       <c r="W23" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="X23" s="147" t="s">
+      <c r="X23" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Y23" s="147" t="s">
+      <c r="Y23" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="Z23" s="147" t="s">
+      <c r="Z23" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AA23" s="147" t="s">
+      <c r="AA23" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AB23" s="147" t="s">
+      <c r="AB23" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AC23" s="147" t="s">
+      <c r="AC23" s="164" t="s">
         <v>166</v>
       </c>
-      <c r="AD23" s="147" t="s">
+      <c r="AD23" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AE23" s="147" t="s">
+      <c r="AE23" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AF23" s="147" t="s">
+      <c r="AF23" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AG23" s="147" t="s">
+      <c r="AG23" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AH23" s="147" t="s">
+      <c r="AH23" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="AI23" s="148" t="s">
+      <c r="AI23" s="165" t="s">
         <v>166</v>
       </c>
-      <c r="AK23" s="161"/>
+      <c r="AK23" s="151"/>
       <c r="AL23" s="34"/>
       <c r="AM23" s="34"/>
       <c r="AN23" s="34"/>
@@ -7926,7 +10852,7 @@
         <v>52</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>168</v>
@@ -7984,43 +10910,43 @@
       <c r="W24" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="X24" s="149" t="s">
+      <c r="X24" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="Y24" s="149" t="s">
+      <c r="Y24" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="Z24" s="149" t="s">
+      <c r="Z24" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AA24" s="149" t="s">
+      <c r="AA24" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AB24" s="149" t="s">
+      <c r="AB24" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="AC24" s="149" t="s">
+      <c r="AC24" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="AD24" s="149" t="s">
+      <c r="AD24" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AE24" s="149" t="s">
+      <c r="AE24" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AF24" s="149" t="s">
+      <c r="AF24" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AG24" s="149" t="s">
+      <c r="AG24" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AH24" s="149" t="s">
+      <c r="AH24" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AI24" s="150" t="s">
+      <c r="AI24" s="166" t="s">
         <v>166</v>
       </c>
-      <c r="AK24" s="161"/>
+      <c r="AK24" s="151"/>
       <c r="AL24" s="34"/>
       <c r="AM24" s="34"/>
       <c r="AN24" s="34"/>
@@ -8037,7 +10963,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>168</v>
@@ -8097,7 +11023,7 @@
       </c>
       <c r="X25" s="122"/>
       <c r="Y25" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z25" s="124"/>
       <c r="AA25" s="124"/>
@@ -8109,7 +11035,7 @@
       <c r="AG25" s="124"/>
       <c r="AH25" s="124"/>
       <c r="AI25" s="125"/>
-      <c r="AK25" s="161"/>
+      <c r="AK25" s="151"/>
       <c r="AL25" s="34"/>
       <c r="AM25" s="34"/>
       <c r="AN25" s="34"/>
@@ -8126,7 +11052,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>168</v>
@@ -8195,7 +11121,7 @@
       <c r="AG26" s="124"/>
       <c r="AH26" s="124"/>
       <c r="AI26" s="125"/>
-      <c r="AK26" s="161"/>
+      <c r="AK26" s="151"/>
       <c r="AL26" s="34"/>
       <c r="AM26" s="34"/>
       <c r="AN26" s="34"/>
@@ -8212,7 +11138,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>168</v>
@@ -8281,7 +11207,7 @@
       <c r="AG27" s="124"/>
       <c r="AH27" s="124"/>
       <c r="AI27" s="125"/>
-      <c r="AK27" s="161"/>
+      <c r="AK27" s="151"/>
       <c r="AL27" s="34"/>
       <c r="AM27" s="34"/>
       <c r="AN27" s="34"/>
@@ -8298,7 +11224,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>168</v>
@@ -8368,7 +11294,7 @@
       <c r="AG28" s="126"/>
       <c r="AH28" s="126"/>
       <c r="AI28" s="127"/>
-      <c r="AK28" s="161"/>
+      <c r="AK28" s="151"/>
       <c r="AL28" s="34"/>
       <c r="AM28" s="34"/>
       <c r="AN28" s="34"/>
@@ -8385,7 +11311,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>168</v>
@@ -8400,7 +11326,7 @@
         <v>0.1</v>
       </c>
       <c r="H29" s="50" t="str">
-        <v>n/a</v>
+        <v>unused</v>
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="27">
@@ -8440,7 +11366,7 @@
         <v>1</v>
       </c>
       <c r="U29" s="28"/>
-      <c r="AK29" s="161"/>
+      <c r="AK29" s="151"/>
       <c r="AL29" s="34"/>
       <c r="AM29" s="34"/>
       <c r="AN29" s="34"/>
@@ -8457,7 +11383,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>168</v>
@@ -8521,7 +11447,7 @@
       <c r="W30" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="AK30" s="161"/>
+      <c r="AK30" s="151"/>
       <c r="AL30" s="34"/>
       <c r="AM30" s="34"/>
       <c r="AN30" s="34"/>
@@ -8538,7 +11464,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>168</v>
@@ -8632,12 +11558,12 @@
       <c r="AI31" s="60">
         <v>12</v>
       </c>
-      <c r="AK31" s="162"/>
-      <c r="AL31" s="163"/>
-      <c r="AM31" s="163"/>
-      <c r="AN31" s="163"/>
-      <c r="AO31" s="163"/>
-      <c r="AP31" s="163"/>
+      <c r="AK31" s="152"/>
+      <c r="AL31" s="153"/>
+      <c r="AM31" s="153"/>
+      <c r="AN31" s="153"/>
+      <c r="AO31" s="153"/>
+      <c r="AP31" s="153"/>
       <c r="AQ31" s="34"/>
       <c r="AR31" s="34"/>
     </row>
@@ -8649,7 +11575,7 @@
         <v>62</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>168</v>
@@ -8744,12 +11670,12 @@
       <c r="AI32" s="112" t="str">
         <v>Undetermined</v>
       </c>
-      <c r="AK32" s="161"/>
+      <c r="AK32" s="151"/>
       <c r="AL32" s="34"/>
       <c r="AM32" s="34"/>
       <c r="AN32" s="34"/>
-      <c r="AO32" s="163"/>
-      <c r="AP32" s="163"/>
+      <c r="AO32" s="153"/>
+      <c r="AP32" s="153"/>
       <c r="AQ32" s="34"/>
       <c r="AR32" s="34"/>
     </row>
@@ -8761,7 +11687,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>168</v>
@@ -8856,12 +11782,12 @@
       <c r="AI33" s="115" t="str">
         <v>Undetermined</v>
       </c>
-      <c r="AK33" s="162"/>
-      <c r="AL33" s="163"/>
-      <c r="AM33" s="163"/>
-      <c r="AN33" s="163"/>
-      <c r="AO33" s="163"/>
-      <c r="AP33" s="163"/>
+      <c r="AK33" s="152"/>
+      <c r="AL33" s="153"/>
+      <c r="AM33" s="153"/>
+      <c r="AN33" s="153"/>
+      <c r="AO33" s="153"/>
+      <c r="AP33" s="153"/>
       <c r="AQ33" s="34"/>
       <c r="AR33" s="34"/>
     </row>
@@ -8873,7 +11799,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>168</v>
@@ -8968,12 +11894,12 @@
       <c r="AI34" s="115" t="str">
         <v>Undetermined</v>
       </c>
-      <c r="AK34" s="161"/>
-      <c r="AL34" s="163"/>
-      <c r="AM34" s="163"/>
-      <c r="AN34" s="163"/>
-      <c r="AO34" s="163"/>
-      <c r="AP34" s="163"/>
+      <c r="AK34" s="151"/>
+      <c r="AL34" s="153"/>
+      <c r="AM34" s="153"/>
+      <c r="AN34" s="153"/>
+      <c r="AO34" s="153"/>
+      <c r="AP34" s="153"/>
       <c r="AQ34" s="34"/>
       <c r="AR34" s="34"/>
     </row>
@@ -8985,7 +11911,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>168</v>
@@ -9080,12 +12006,12 @@
       <c r="AI35" s="115" t="str">
         <v>Undetermined</v>
       </c>
-      <c r="AK35" s="161"/>
-      <c r="AL35" s="163"/>
-      <c r="AM35" s="163"/>
-      <c r="AN35" s="163"/>
-      <c r="AO35" s="163"/>
-      <c r="AP35" s="163"/>
+      <c r="AK35" s="151"/>
+      <c r="AL35" s="153"/>
+      <c r="AM35" s="153"/>
+      <c r="AN35" s="153"/>
+      <c r="AO35" s="153"/>
+      <c r="AP35" s="153"/>
       <c r="AQ35" s="34"/>
       <c r="AR35" s="34"/>
     </row>
@@ -9097,7 +12023,7 @@
         <v>66</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>168</v>
@@ -9192,12 +12118,12 @@
       <c r="AI36" s="115" t="str">
         <v>Undetermined</v>
       </c>
-      <c r="AK36" s="161"/>
-      <c r="AL36" s="163"/>
-      <c r="AM36" s="163"/>
-      <c r="AN36" s="163"/>
-      <c r="AO36" s="163"/>
-      <c r="AP36" s="163"/>
+      <c r="AK36" s="151"/>
+      <c r="AL36" s="153"/>
+      <c r="AM36" s="153"/>
+      <c r="AN36" s="153"/>
+      <c r="AO36" s="153"/>
+      <c r="AP36" s="153"/>
       <c r="AQ36" s="34"/>
       <c r="AR36" s="34"/>
     </row>
@@ -9209,7 +12135,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>168</v>
@@ -9304,12 +12230,12 @@
       <c r="AI37" s="115" t="str">
         <v>Undetermined</v>
       </c>
-      <c r="AK37" s="161"/>
-      <c r="AL37" s="163"/>
-      <c r="AM37" s="163"/>
-      <c r="AN37" s="163"/>
-      <c r="AO37" s="163"/>
-      <c r="AP37" s="163"/>
+      <c r="AK37" s="151"/>
+      <c r="AL37" s="153"/>
+      <c r="AM37" s="153"/>
+      <c r="AN37" s="153"/>
+      <c r="AO37" s="153"/>
+      <c r="AP37" s="153"/>
       <c r="AQ37" s="34"/>
       <c r="AR37" s="34"/>
     </row>
@@ -9321,7 +12247,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>168</v>
@@ -9416,12 +12342,12 @@
       <c r="AI38" s="115" t="str">
         <v>Undetermined</v>
       </c>
-      <c r="AK38" s="161"/>
-      <c r="AL38" s="163"/>
-      <c r="AM38" s="163"/>
-      <c r="AN38" s="163"/>
-      <c r="AO38" s="163"/>
-      <c r="AP38" s="163"/>
+      <c r="AK38" s="151"/>
+      <c r="AL38" s="153"/>
+      <c r="AM38" s="153"/>
+      <c r="AN38" s="153"/>
+      <c r="AO38" s="153"/>
+      <c r="AP38" s="153"/>
       <c r="AQ38" s="34"/>
       <c r="AR38" s="34"/>
     </row>
@@ -9433,7 +12359,7 @@
         <v>69</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>168</v>
@@ -9528,12 +12454,12 @@
       <c r="AI39" s="118" t="str">
         <v>Undetermined</v>
       </c>
-      <c r="AK39" s="161"/>
-      <c r="AL39" s="163"/>
-      <c r="AM39" s="163"/>
-      <c r="AN39" s="163"/>
-      <c r="AO39" s="163"/>
-      <c r="AP39" s="163"/>
+      <c r="AK39" s="151"/>
+      <c r="AL39" s="153"/>
+      <c r="AM39" s="153"/>
+      <c r="AN39" s="153"/>
+      <c r="AO39" s="153"/>
+      <c r="AP39" s="153"/>
       <c r="AQ39" s="34"/>
       <c r="AR39" s="34"/>
     </row>
@@ -9545,7 +12471,7 @@
         <v>70</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>168</v>
@@ -9601,12 +12527,12 @@
       </c>
       <c r="U40" s="20"/>
       <c r="W40" s="31"/>
-      <c r="AK40" s="162"/>
-      <c r="AL40" s="163"/>
-      <c r="AM40" s="163"/>
-      <c r="AN40" s="163"/>
-      <c r="AO40" s="163"/>
-      <c r="AP40" s="163"/>
+      <c r="AK40" s="152"/>
+      <c r="AL40" s="153"/>
+      <c r="AM40" s="153"/>
+      <c r="AN40" s="153"/>
+      <c r="AO40" s="153"/>
+      <c r="AP40" s="153"/>
       <c r="AQ40" s="34"/>
       <c r="AR40" s="34"/>
     </row>
@@ -9618,7 +12544,7 @@
         <v>71</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>168</v>
@@ -9633,7 +12559,7 @@
         <v>0.1</v>
       </c>
       <c r="H41" s="49" t="str">
-        <v>n/a</v>
+        <v>unused</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="19">
@@ -9675,12 +12601,12 @@
       <c r="U41" s="20"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="32"/>
-      <c r="AK41" s="162"/>
-      <c r="AL41" s="163"/>
-      <c r="AM41" s="163"/>
-      <c r="AN41" s="163"/>
-      <c r="AO41" s="163"/>
-      <c r="AP41" s="163"/>
+      <c r="AK41" s="152"/>
+      <c r="AL41" s="153"/>
+      <c r="AM41" s="153"/>
+      <c r="AN41" s="153"/>
+      <c r="AO41" s="153"/>
+      <c r="AP41" s="153"/>
       <c r="AQ41" s="34"/>
       <c r="AR41" s="34"/>
     </row>
@@ -9692,7 +12618,7 @@
         <v>72</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>168</v>
@@ -9758,12 +12684,12 @@
       </c>
       <c r="AB42" s="33"/>
       <c r="AC42" s="34"/>
-      <c r="AK42" s="162"/>
-      <c r="AL42" s="163"/>
-      <c r="AM42" s="163"/>
-      <c r="AN42" s="163"/>
-      <c r="AO42" s="163"/>
-      <c r="AP42" s="163"/>
+      <c r="AK42" s="152"/>
+      <c r="AL42" s="153"/>
+      <c r="AM42" s="153"/>
+      <c r="AN42" s="153"/>
+      <c r="AO42" s="153"/>
+      <c r="AP42" s="153"/>
       <c r="AQ42" s="34"/>
       <c r="AR42" s="34"/>
     </row>
@@ -9775,7 +12701,7 @@
         <v>74</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>168</v>
@@ -9859,12 +12785,12 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
-      <c r="AK43" s="162"/>
-      <c r="AL43" s="163"/>
-      <c r="AM43" s="163"/>
+      <c r="AK43" s="152"/>
+      <c r="AL43" s="153"/>
+      <c r="AM43" s="153"/>
       <c r="AN43" s="34"/>
-      <c r="AO43" s="163"/>
-      <c r="AP43" s="163"/>
+      <c r="AO43" s="153"/>
+      <c r="AP43" s="153"/>
       <c r="AQ43" s="34"/>
       <c r="AR43" s="34"/>
     </row>
@@ -9876,7 +12802,7 @@
         <v>80</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>168</v>
@@ -9962,12 +12888,12 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
-      <c r="AK44" s="162"/>
-      <c r="AL44" s="163"/>
-      <c r="AM44" s="163"/>
+      <c r="AK44" s="152"/>
+      <c r="AL44" s="153"/>
+      <c r="AM44" s="153"/>
       <c r="AN44" s="34"/>
-      <c r="AO44" s="163"/>
-      <c r="AP44" s="163"/>
+      <c r="AO44" s="153"/>
+      <c r="AP44" s="153"/>
       <c r="AQ44" s="34"/>
       <c r="AR44" s="34"/>
     </row>
@@ -9979,7 +12905,7 @@
         <v>83</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>168</v>
@@ -10058,12 +12984,12 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
-      <c r="AK45" s="162"/>
-      <c r="AL45" s="163"/>
-      <c r="AM45" s="163"/>
+      <c r="AK45" s="152"/>
+      <c r="AL45" s="153"/>
+      <c r="AM45" s="153"/>
       <c r="AN45" s="34"/>
-      <c r="AO45" s="163"/>
-      <c r="AP45" s="163"/>
+      <c r="AO45" s="153"/>
+      <c r="AP45" s="153"/>
       <c r="AQ45" s="34"/>
       <c r="AR45" s="34"/>
     </row>
@@ -10075,7 +13001,7 @@
         <v>84</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>168</v>
@@ -10154,12 +13080,12 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
-      <c r="AK46" s="162"/>
-      <c r="AL46" s="163"/>
-      <c r="AM46" s="163"/>
+      <c r="AK46" s="152"/>
+      <c r="AL46" s="153"/>
+      <c r="AM46" s="153"/>
       <c r="AN46" s="34"/>
-      <c r="AO46" s="163"/>
-      <c r="AP46" s="163"/>
+      <c r="AO46" s="153"/>
+      <c r="AP46" s="153"/>
       <c r="AQ46" s="34"/>
       <c r="AR46" s="34"/>
     </row>
@@ -10171,7 +13097,7 @@
         <v>85</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>168</v>
@@ -10250,12 +13176,12 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
-      <c r="AK47" s="162"/>
-      <c r="AL47" s="163"/>
-      <c r="AM47" s="163"/>
+      <c r="AK47" s="152"/>
+      <c r="AL47" s="153"/>
+      <c r="AM47" s="153"/>
       <c r="AN47" s="34"/>
-      <c r="AO47" s="163"/>
-      <c r="AP47" s="163"/>
+      <c r="AO47" s="153"/>
+      <c r="AP47" s="153"/>
       <c r="AQ47" s="34"/>
       <c r="AR47" s="34"/>
     </row>
@@ -10267,7 +13193,7 @@
         <v>86</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>168</v>
@@ -10346,12 +13272,12 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
-      <c r="AK48" s="162"/>
-      <c r="AL48" s="163"/>
-      <c r="AM48" s="163"/>
-      <c r="AN48" s="163"/>
-      <c r="AO48" s="163"/>
-      <c r="AP48" s="163"/>
+      <c r="AK48" s="152"/>
+      <c r="AL48" s="153"/>
+      <c r="AM48" s="153"/>
+      <c r="AN48" s="153"/>
+      <c r="AO48" s="153"/>
+      <c r="AP48" s="153"/>
       <c r="AQ48" s="34"/>
       <c r="AR48" s="34"/>
     </row>
@@ -10363,7 +13289,7 @@
         <v>87</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>168</v>
@@ -10442,12 +13368,12 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
-      <c r="AK49" s="162"/>
-      <c r="AL49" s="163"/>
-      <c r="AM49" s="163"/>
-      <c r="AN49" s="163"/>
-      <c r="AO49" s="163"/>
-      <c r="AP49" s="163"/>
+      <c r="AK49" s="152"/>
+      <c r="AL49" s="153"/>
+      <c r="AM49" s="153"/>
+      <c r="AN49" s="153"/>
+      <c r="AO49" s="153"/>
+      <c r="AP49" s="153"/>
       <c r="AQ49" s="34"/>
       <c r="AR49" s="34"/>
     </row>
@@ -10459,7 +13385,7 @@
         <v>88</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>168</v>
@@ -10538,12 +13464,12 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
-      <c r="AK50" s="162"/>
-      <c r="AL50" s="163"/>
-      <c r="AM50" s="163"/>
-      <c r="AN50" s="163"/>
-      <c r="AO50" s="163"/>
-      <c r="AP50" s="163"/>
+      <c r="AK50" s="152"/>
+      <c r="AL50" s="153"/>
+      <c r="AM50" s="153"/>
+      <c r="AN50" s="153"/>
+      <c r="AO50" s="153"/>
+      <c r="AP50" s="153"/>
       <c r="AQ50" s="34"/>
       <c r="AR50" s="34"/>
     </row>
@@ -10555,7 +13481,7 @@
         <v>89</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>168</v>
@@ -10634,12 +13560,12 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
-      <c r="AK51" s="162"/>
-      <c r="AL51" s="163"/>
-      <c r="AM51" s="163"/>
-      <c r="AN51" s="163"/>
-      <c r="AO51" s="163"/>
-      <c r="AP51" s="163"/>
+      <c r="AK51" s="152"/>
+      <c r="AL51" s="153"/>
+      <c r="AM51" s="153"/>
+      <c r="AN51" s="153"/>
+      <c r="AO51" s="153"/>
+      <c r="AP51" s="153"/>
       <c r="AQ51" s="34"/>
       <c r="AR51" s="34"/>
     </row>
@@ -10651,7 +13577,7 @@
         <v>90</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>168</v>
@@ -10727,12 +13653,12 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
-      <c r="AK52" s="162"/>
-      <c r="AL52" s="163"/>
-      <c r="AM52" s="163"/>
-      <c r="AN52" s="163"/>
-      <c r="AO52" s="163"/>
-      <c r="AP52" s="163"/>
+      <c r="AK52" s="152"/>
+      <c r="AL52" s="153"/>
+      <c r="AM52" s="153"/>
+      <c r="AN52" s="153"/>
+      <c r="AO52" s="153"/>
+      <c r="AP52" s="153"/>
       <c r="AQ52" s="34"/>
       <c r="AR52" s="34"/>
     </row>
@@ -10744,7 +13670,7 @@
         <v>91</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>168</v>
@@ -10759,7 +13685,7 @@
         <v>0.1</v>
       </c>
       <c r="H53" s="50" t="str">
-        <v>n/a</v>
+        <v>unused</v>
       </c>
       <c r="I53" s="26"/>
       <c r="J53" s="27">
@@ -10834,12 +13760,12 @@
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
-      <c r="AK53" s="162"/>
-      <c r="AL53" s="163"/>
-      <c r="AM53" s="163"/>
-      <c r="AN53" s="163"/>
-      <c r="AO53" s="163"/>
-      <c r="AP53" s="163"/>
+      <c r="AK53" s="152"/>
+      <c r="AL53" s="153"/>
+      <c r="AM53" s="153"/>
+      <c r="AN53" s="153"/>
+      <c r="AO53" s="153"/>
+      <c r="AP53" s="153"/>
       <c r="AQ53" s="34"/>
       <c r="AR53" s="34"/>
     </row>
@@ -10851,7 +13777,7 @@
         <v>93</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>168</v>
@@ -10947,12 +13873,12 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
-      <c r="AK54" s="162"/>
-      <c r="AL54" s="163"/>
-      <c r="AM54" s="163"/>
-      <c r="AN54" s="163"/>
-      <c r="AO54" s="163"/>
-      <c r="AP54" s="163"/>
+      <c r="AK54" s="152"/>
+      <c r="AL54" s="153"/>
+      <c r="AM54" s="153"/>
+      <c r="AN54" s="153"/>
+      <c r="AO54" s="153"/>
+      <c r="AP54" s="153"/>
       <c r="AQ54" s="34"/>
       <c r="AR54" s="34"/>
     </row>
@@ -10964,7 +13890,7 @@
         <v>95</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>168</v>
@@ -11052,12 +13978,12 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
-      <c r="AK55" s="161"/>
+      <c r="AK55" s="151"/>
       <c r="AL55" s="34"/>
       <c r="AM55" s="34"/>
       <c r="AN55" s="34"/>
-      <c r="AO55" s="163"/>
-      <c r="AP55" s="163"/>
+      <c r="AO55" s="153"/>
+      <c r="AP55" s="153"/>
       <c r="AQ55" s="34"/>
       <c r="AR55" s="34"/>
     </row>
@@ -11069,7 +13995,7 @@
         <v>97</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>168</v>
@@ -11160,12 +14086,12 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
-      <c r="AK56" s="161"/>
+      <c r="AK56" s="151"/>
       <c r="AL56" s="34"/>
       <c r="AM56" s="34"/>
       <c r="AN56" s="34"/>
-      <c r="AO56" s="163"/>
-      <c r="AP56" s="163"/>
+      <c r="AO56" s="153"/>
+      <c r="AP56" s="153"/>
       <c r="AQ56" s="34"/>
       <c r="AR56" s="34"/>
     </row>
@@ -11177,7 +14103,7 @@
         <v>99</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>168</v>
@@ -11245,12 +14171,12 @@
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
-      <c r="AK57" s="161"/>
+      <c r="AK57" s="151"/>
       <c r="AL57" s="34"/>
       <c r="AM57" s="34"/>
       <c r="AN57" s="34"/>
-      <c r="AO57" s="163"/>
-      <c r="AP57" s="163"/>
+      <c r="AO57" s="153"/>
+      <c r="AP57" s="153"/>
       <c r="AQ57" s="34"/>
       <c r="AR57" s="34"/>
     </row>
@@ -11262,7 +14188,7 @@
         <v>100</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D58" s="14" t="s">
         <v>168</v>
@@ -11329,12 +14255,12 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
-      <c r="AK58" s="161"/>
+      <c r="AK58" s="151"/>
       <c r="AL58" s="34"/>
       <c r="AM58" s="34"/>
       <c r="AN58" s="34"/>
-      <c r="AO58" s="163"/>
-      <c r="AP58" s="163"/>
+      <c r="AO58" s="153"/>
+      <c r="AP58" s="153"/>
       <c r="AQ58" s="34"/>
       <c r="AR58" s="34"/>
     </row>
@@ -11346,7 +14272,7 @@
         <v>101</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>168</v>
@@ -11404,12 +14330,12 @@
       <c r="W59" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="AK59" s="161"/>
+      <c r="AK59" s="151"/>
       <c r="AL59" s="34"/>
       <c r="AM59" s="34"/>
       <c r="AN59" s="34"/>
-      <c r="AO59" s="163"/>
-      <c r="AP59" s="163"/>
+      <c r="AO59" s="153"/>
+      <c r="AP59" s="153"/>
       <c r="AQ59" s="34"/>
       <c r="AR59" s="34"/>
     </row>
@@ -11421,7 +14347,7 @@
         <v>102</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>168</v>
@@ -11515,12 +14441,12 @@
       <c r="AI60" s="60">
         <v>12</v>
       </c>
-      <c r="AK60" s="161"/>
+      <c r="AK60" s="151"/>
       <c r="AL60" s="34"/>
       <c r="AM60" s="34"/>
       <c r="AN60" s="34"/>
-      <c r="AO60" s="163"/>
-      <c r="AP60" s="163"/>
+      <c r="AO60" s="153"/>
+      <c r="AP60" s="153"/>
       <c r="AQ60" s="34"/>
       <c r="AR60" s="34"/>
     </row>
@@ -11532,7 +14458,7 @@
         <v>103</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>168</v>
@@ -11638,12 +14564,12 @@
         <f>IFERROR(AVERAGEIF($J:$J,$J17,$E:$E),"")</f>
         <v/>
       </c>
-      <c r="AK61" s="161"/>
+      <c r="AK61" s="151"/>
       <c r="AL61" s="34"/>
       <c r="AM61" s="34"/>
       <c r="AN61" s="34"/>
-      <c r="AO61" s="163"/>
-      <c r="AP61" s="163"/>
+      <c r="AO61" s="153"/>
+      <c r="AP61" s="153"/>
       <c r="AQ61" s="34"/>
       <c r="AR61" s="34"/>
     </row>
@@ -11655,7 +14581,7 @@
         <v>104</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>168</v>
@@ -11761,12 +14687,12 @@
         <f>IFERROR(AVERAGEIF($J:$J,$J29,$E:$E),"")</f>
         <v/>
       </c>
-      <c r="AK62" s="161"/>
+      <c r="AK62" s="151"/>
       <c r="AL62" s="34"/>
       <c r="AM62" s="34"/>
       <c r="AN62" s="34"/>
-      <c r="AO62" s="163"/>
-      <c r="AP62" s="163"/>
+      <c r="AO62" s="153"/>
+      <c r="AP62" s="153"/>
       <c r="AQ62" s="34"/>
       <c r="AR62" s="34"/>
     </row>
@@ -11778,7 +14704,7 @@
         <v>105</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>168</v>
@@ -11884,12 +14810,12 @@
         <f>IFERROR(AVERAGEIF($J:$J,$J41,$E:$E),"")</f>
         <v/>
       </c>
-      <c r="AK63" s="161"/>
+      <c r="AK63" s="151"/>
       <c r="AL63" s="34"/>
       <c r="AM63" s="34"/>
       <c r="AN63" s="34"/>
-      <c r="AO63" s="163"/>
-      <c r="AP63" s="163"/>
+      <c r="AO63" s="153"/>
+      <c r="AP63" s="153"/>
       <c r="AQ63" s="34"/>
       <c r="AR63" s="34"/>
     </row>
@@ -11901,7 +14827,7 @@
         <v>106</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>168</v>
@@ -12007,12 +14933,12 @@
         <f>IFERROR(AVERAGEIF($J:$J,$J53,$E:$E),"")</f>
         <v/>
       </c>
-      <c r="AK64" s="161"/>
+      <c r="AK64" s="151"/>
       <c r="AL64" s="34"/>
       <c r="AM64" s="34"/>
       <c r="AN64" s="34"/>
-      <c r="AO64" s="163"/>
-      <c r="AP64" s="163"/>
+      <c r="AO64" s="153"/>
+      <c r="AP64" s="153"/>
       <c r="AQ64" s="34"/>
       <c r="AR64" s="34"/>
     </row>
@@ -12024,7 +14950,7 @@
         <v>107</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>168</v>
@@ -12039,7 +14965,7 @@
         <v>0.1</v>
       </c>
       <c r="H65" s="49" t="str">
-        <v>n/a</v>
+        <v>unused</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="19">
@@ -12130,12 +15056,12 @@
         <f>IFERROR(AVERAGEIF($J:$J,$J65,$E:$E),"")</f>
         <v/>
       </c>
-      <c r="AK65" s="161"/>
+      <c r="AK65" s="151"/>
       <c r="AL65" s="34"/>
       <c r="AM65" s="34"/>
       <c r="AN65" s="34"/>
-      <c r="AO65" s="163"/>
-      <c r="AP65" s="163"/>
+      <c r="AO65" s="153"/>
+      <c r="AP65" s="153"/>
       <c r="AQ65" s="34"/>
       <c r="AR65" s="34"/>
     </row>
@@ -12147,7 +15073,7 @@
         <v>108</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>168</v>
@@ -12259,12 +15185,12 @@
         <f>IFERROR(AVERAGEIF($J:$J,$J77,$E:$E),"")</f>
         <v/>
       </c>
-      <c r="AK66" s="161"/>
+      <c r="AK66" s="151"/>
       <c r="AL66" s="34"/>
       <c r="AM66" s="34"/>
       <c r="AN66" s="34"/>
-      <c r="AO66" s="163"/>
-      <c r="AP66" s="163"/>
+      <c r="AO66" s="153"/>
+      <c r="AP66" s="153"/>
       <c r="AQ66" s="34"/>
       <c r="AR66" s="34"/>
     </row>
@@ -12276,7 +15202,7 @@
         <v>109</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>168</v>
@@ -12382,12 +15308,12 @@
         <f>IFERROR(AVERAGEIF($J:$J,$J89,$E:$E),"")</f>
         <v/>
       </c>
-      <c r="AK67" s="161"/>
+      <c r="AK67" s="151"/>
       <c r="AL67" s="34"/>
       <c r="AM67" s="34"/>
       <c r="AN67" s="34"/>
-      <c r="AO67" s="163"/>
-      <c r="AP67" s="163"/>
+      <c r="AO67" s="153"/>
+      <c r="AP67" s="153"/>
       <c r="AQ67" s="34"/>
       <c r="AR67" s="34"/>
     </row>
@@ -12399,7 +15325,7 @@
         <v>110</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>168</v>
@@ -12505,12 +15431,12 @@
         <f>IFERROR(AVERAGEIF($J:$J,$J101,$E:$E),"")</f>
         <v/>
       </c>
-      <c r="AK68" s="161"/>
+      <c r="AK68" s="151"/>
       <c r="AL68" s="34"/>
       <c r="AM68" s="34"/>
       <c r="AN68" s="34"/>
-      <c r="AO68" s="163"/>
-      <c r="AP68" s="163"/>
+      <c r="AO68" s="153"/>
+      <c r="AP68" s="153"/>
       <c r="AQ68" s="34"/>
       <c r="AR68" s="34"/>
     </row>
@@ -12522,7 +15448,7 @@
         <v>111</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>168</v>
@@ -12589,12 +15515,12 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
       <c r="AI69" s="2"/>
-      <c r="AK69" s="161"/>
+      <c r="AK69" s="151"/>
       <c r="AL69" s="34"/>
       <c r="AM69" s="34"/>
       <c r="AN69" s="34"/>
-      <c r="AO69" s="163"/>
-      <c r="AP69" s="163"/>
+      <c r="AO69" s="153"/>
+      <c r="AP69" s="153"/>
       <c r="AQ69" s="34"/>
       <c r="AR69" s="34"/>
     </row>
@@ -12606,7 +15532,7 @@
         <v>112</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>168</v>
@@ -12673,12 +15599,12 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
       <c r="AI70" s="2"/>
-      <c r="AK70" s="161"/>
+      <c r="AK70" s="151"/>
       <c r="AL70" s="34"/>
       <c r="AM70" s="34"/>
       <c r="AN70" s="34"/>
-      <c r="AO70" s="163"/>
-      <c r="AP70" s="163"/>
+      <c r="AO70" s="153"/>
+      <c r="AP70" s="153"/>
       <c r="AQ70" s="34"/>
       <c r="AR70" s="34"/>
     </row>
@@ -12690,7 +15616,7 @@
         <v>113</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>168</v>
@@ -12759,12 +15685,12 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
       <c r="AI71" s="2"/>
-      <c r="AK71" s="161"/>
+      <c r="AK71" s="151"/>
       <c r="AL71" s="34"/>
       <c r="AM71" s="34"/>
       <c r="AN71" s="34"/>
-      <c r="AO71" s="163"/>
-      <c r="AP71" s="163"/>
+      <c r="AO71" s="153"/>
+      <c r="AP71" s="153"/>
       <c r="AQ71" s="34"/>
       <c r="AR71" s="34"/>
     </row>
@@ -12776,7 +15702,7 @@
         <v>114</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>168</v>
@@ -12870,12 +15796,12 @@
       <c r="AI72" s="60">
         <v>12</v>
       </c>
-      <c r="AK72" s="161"/>
+      <c r="AK72" s="151"/>
       <c r="AL72" s="34"/>
       <c r="AM72" s="34"/>
       <c r="AN72" s="34"/>
-      <c r="AO72" s="163"/>
-      <c r="AP72" s="163"/>
+      <c r="AO72" s="153"/>
+      <c r="AP72" s="153"/>
       <c r="AQ72" s="34"/>
       <c r="AR72" s="34"/>
     </row>
@@ -12887,7 +15813,7 @@
         <v>115</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>168</v>
@@ -12993,12 +15919,12 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AK73" s="161"/>
+      <c r="AK73" s="151"/>
       <c r="AL73" s="34"/>
       <c r="AM73" s="34"/>
       <c r="AN73" s="34"/>
-      <c r="AO73" s="163"/>
-      <c r="AP73" s="163"/>
+      <c r="AO73" s="153"/>
+      <c r="AP73" s="153"/>
       <c r="AQ73" s="34"/>
       <c r="AR73" s="34"/>
     </row>
@@ -13010,7 +15936,7 @@
         <v>116</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>168</v>
@@ -13116,12 +16042,12 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AK74" s="161"/>
+      <c r="AK74" s="151"/>
       <c r="AL74" s="34"/>
       <c r="AM74" s="34"/>
       <c r="AN74" s="34"/>
-      <c r="AO74" s="163"/>
-      <c r="AP74" s="163"/>
+      <c r="AO74" s="153"/>
+      <c r="AP74" s="153"/>
       <c r="AQ74" s="34"/>
       <c r="AR74" s="34"/>
     </row>
@@ -13133,7 +16059,7 @@
         <v>117</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>168</v>
@@ -13239,12 +16165,12 @@
         <f ca="1"/>
         <v/>
       </c>
-      <c r="AK75" s="161"/>
+      <c r="AK75" s="151"/>
       <c r="AL75" s="34"/>
       <c r="AM75" s="34"/>
       <c r="AN75" s="34"/>
-      <c r="AO75" s="163"/>
-      <c r="AP75" s="163"/>
+      <c r="AO75" s="153"/>
+      <c r="AP75" s="153"/>
       <c r="AQ75" s="34"/>
       <c r="AR75" s="34"/>
     </row>
@@ -13256,7 +16182,7 @@
         <v>118</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>168</v>
@@ -13366,8 +16292,8 @@
       <c r="AL76" s="34"/>
       <c r="AM76" s="34"/>
       <c r="AN76" s="34"/>
-      <c r="AO76" s="163"/>
-      <c r="AP76" s="163"/>
+      <c r="AO76" s="153"/>
+      <c r="AP76" s="153"/>
       <c r="AQ76" s="34"/>
       <c r="AR76" s="34"/>
     </row>
@@ -13379,7 +16305,7 @@
         <v>119</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="22" t="s">
         <v>168</v>
@@ -13394,7 +16320,7 @@
         <v>0.1</v>
       </c>
       <c r="H77" s="50" t="str">
-        <v>n/a</v>
+        <v>unused</v>
       </c>
       <c r="I77" s="26"/>
       <c r="J77" s="27">
@@ -13489,8 +16415,8 @@
       <c r="AL77" s="34"/>
       <c r="AM77" s="34"/>
       <c r="AN77" s="34"/>
-      <c r="AO77" s="163"/>
-      <c r="AP77" s="163"/>
+      <c r="AO77" s="153"/>
+      <c r="AP77" s="153"/>
       <c r="AQ77" s="34"/>
       <c r="AR77" s="34"/>
     </row>
@@ -13502,7 +16428,7 @@
         <v>120</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>168</v>
@@ -13618,8 +16544,8 @@
       <c r="AL78" s="34"/>
       <c r="AM78" s="34"/>
       <c r="AN78" s="34"/>
-      <c r="AO78" s="163"/>
-      <c r="AP78" s="163"/>
+      <c r="AO78" s="153"/>
+      <c r="AP78" s="153"/>
       <c r="AQ78" s="34"/>
       <c r="AR78" s="34"/>
     </row>
@@ -13631,7 +16557,7 @@
         <v>121</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>168</v>
@@ -13741,8 +16667,8 @@
       <c r="AL79" s="34"/>
       <c r="AM79" s="34"/>
       <c r="AN79" s="34"/>
-      <c r="AO79" s="163"/>
-      <c r="AP79" s="163"/>
+      <c r="AO79" s="153"/>
+      <c r="AP79" s="153"/>
       <c r="AQ79" s="34"/>
       <c r="AR79" s="34"/>
     </row>
@@ -13754,7 +16680,7 @@
         <v>122</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>168</v>
@@ -13877,7 +16803,7 @@
         <v>123</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>168</v>
@@ -13949,7 +16875,7 @@
         <v>124</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>168</v>
@@ -14005,7 +16931,7 @@
       </c>
       <c r="U82" s="20"/>
       <c r="AK82" s="34"/>
-      <c r="AL82" s="164"/>
+      <c r="AL82" s="154"/>
       <c r="AM82" s="34"/>
       <c r="AN82" s="34"/>
       <c r="AO82" s="34"/>
@@ -14021,7 +16947,7 @@
         <v>125</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>168</v>
@@ -14092,7 +17018,7 @@
         <v>126</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>168</v>
@@ -14199,7 +17125,7 @@
         <v>127</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>168</v>
@@ -14318,7 +17244,7 @@
         <v>128</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>168</v>
@@ -14437,7 +17363,7 @@
         <v>129</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>168</v>
@@ -14552,7 +17478,7 @@
         <v>130</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>168</v>
@@ -14667,7 +17593,7 @@
         <v>131</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>168</v>
@@ -14682,7 +17608,7 @@
         <v>0.1</v>
       </c>
       <c r="H89" s="49" t="str">
-        <v>n/a</v>
+        <v>unused</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="19">
@@ -14782,7 +17708,7 @@
         <v>132</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>168</v>
@@ -14903,7 +17829,7 @@
         <v>133</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>168</v>
@@ -15018,7 +17944,7 @@
         <v>134</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D92" s="14" t="s">
         <v>168</v>
@@ -15133,7 +18059,7 @@
         <v>135</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>168</v>
@@ -15197,7 +18123,7 @@
         <v>136</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>168</v>
@@ -15261,7 +18187,7 @@
         <v>137</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>168</v>
@@ -15329,7 +18255,7 @@
         <v>138</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>168</v>
@@ -15394,7 +18320,7 @@
         <v>139</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D97" s="14" t="s">
         <v>168</v>
@@ -15458,7 +18384,7 @@
         <v>140</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>168</v>
@@ -15522,7 +18448,7 @@
         <v>141</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D99" s="14" t="s">
         <v>168</v>
@@ -15586,7 +18512,7 @@
         <v>142</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D100" s="14" t="s">
         <v>168</v>
@@ -15650,7 +18576,7 @@
         <v>143</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D101" s="22" t="s">
         <v>168</v>
@@ -15665,7 +18591,7 @@
         <v>0.1</v>
       </c>
       <c r="H101" s="50" t="str">
-        <v>n/a</v>
+        <v>unused</v>
       </c>
       <c r="I101" s="26"/>
       <c r="J101" s="27">
@@ -15727,77 +18653,77 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J6:J101">
-    <cfRule type="expression" dxfId="100" priority="114">
+    <cfRule type="expression" dxfId="211" priority="123">
       <formula>_xlfn.MAXIFS(E:E,J:J,J6)-_xlfn.MINIFS(E:E,J:J,J6)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:O101">
-    <cfRule type="cellIs" dxfId="99" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="126" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q101">
-    <cfRule type="containsText" dxfId="98" priority="11" operator="containsText" text="#N/A">
+    <cfRule type="containsText" dxfId="209" priority="20" operator="containsText" text="#N/A">
       <formula>NOT(ISERROR(SEARCH("#N/A",Q6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S101">
-    <cfRule type="cellIs" dxfId="97" priority="115" operator="between">
+    <cfRule type="cellIs" dxfId="208" priority="124" operator="between">
       <formula>1.3</formula>
       <formula>9999999999999990</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="116" operator="between">
+    <cfRule type="cellIs" dxfId="207" priority="125" operator="between">
       <formula>0.01</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T101">
-    <cfRule type="cellIs" dxfId="95" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="expression" dxfId="94" priority="107">
+    <cfRule type="expression" dxfId="205" priority="116">
       <formula>_xlfn.MAXIFS(E:E,J:J,J6)-_xlfn.MINIFS(E:E,J:J,J6)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33">
-    <cfRule type="expression" dxfId="93" priority="106">
+    <cfRule type="expression" dxfId="204" priority="115">
       <formula>_xlfn.MAXIFS(E:E,J:J,J18)-_xlfn.MINIFS(E:E,J:J,J18)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34">
-    <cfRule type="expression" dxfId="92" priority="83">
+    <cfRule type="expression" dxfId="203" priority="92">
       <formula>_xlfn.MAXIFS(E:E,J:J,J30)-_xlfn.MINIFS(E:E,J:J,J30)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="expression" dxfId="91" priority="71">
+    <cfRule type="expression" dxfId="202" priority="80">
       <formula>_xlfn.MAXIFS(E:E,J:J,J42)-_xlfn.MINIFS(E:E,J:J,J42)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36">
-    <cfRule type="expression" dxfId="90" priority="59">
+    <cfRule type="expression" dxfId="201" priority="68">
       <formula>_xlfn.MAXIFS(E:E,J:J,J54)-_xlfn.MINIFS(E:E,J:J,J54)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X37">
-    <cfRule type="expression" dxfId="89" priority="47">
+    <cfRule type="expression" dxfId="200" priority="56">
       <formula>_xlfn.MAXIFS(E:E,J:J,J66)-_xlfn.MINIFS(E:E,J:J,J66)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X38">
-    <cfRule type="expression" dxfId="88" priority="35">
+    <cfRule type="expression" dxfId="199" priority="44">
       <formula>_xlfn.MAXIFS(E:E,J:J,J78)-_xlfn.MINIFS(E:E,J:J,J78)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X39">
-    <cfRule type="expression" dxfId="87" priority="23">
+    <cfRule type="expression" dxfId="198" priority="32">
       <formula>_xlfn.MAXIFS(E:E,J:J,J90)-_xlfn.MINIFS(E:E,J:J,J90)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X61:AI68">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15807,7 +18733,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X73:AI80">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15819,7 +18745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X85:AI92">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15829,7 +18755,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -15841,438 +18767,455 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="expression" dxfId="86" priority="105">
+    <cfRule type="expression" dxfId="197" priority="114">
       <formula>_xlfn.MAXIFS(E:E,J:J,J7)-_xlfn.MINIFS(E:E,J:J,J7)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33">
-    <cfRule type="expression" dxfId="85" priority="94">
+    <cfRule type="expression" dxfId="196" priority="103">
       <formula>_xlfn.MAXIFS(E:E,J:J,J19)-_xlfn.MINIFS(E:E,J:J,J19)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34">
-    <cfRule type="expression" dxfId="84" priority="82">
+    <cfRule type="expression" dxfId="195" priority="91">
       <formula>_xlfn.MAXIFS(E:E,J:J,J31)-_xlfn.MINIFS(E:E,J:J,J31)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35">
-    <cfRule type="expression" dxfId="83" priority="70">
+    <cfRule type="expression" dxfId="194" priority="79">
       <formula>_xlfn.MAXIFS(E:E,J:J,J43)-_xlfn.MINIFS(E:E,J:J,J43)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y36">
-    <cfRule type="expression" dxfId="82" priority="58">
+    <cfRule type="expression" dxfId="193" priority="67">
       <formula>_xlfn.MAXIFS(E:E,J:J,J55)-_xlfn.MINIFS(E:E,J:J,J55)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37">
-    <cfRule type="expression" dxfId="81" priority="46">
+    <cfRule type="expression" dxfId="192" priority="55">
       <formula>_xlfn.MAXIFS(E:E,J:J,J67)-_xlfn.MINIFS(E:E,J:J,J67)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y38">
-    <cfRule type="expression" dxfId="80" priority="34">
+    <cfRule type="expression" dxfId="191" priority="43">
       <formula>_xlfn.MAXIFS(E:E,J:J,J79)-_xlfn.MINIFS(E:E,J:J,J79)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39">
-    <cfRule type="expression" dxfId="79" priority="22">
+    <cfRule type="expression" dxfId="190" priority="31">
       <formula>_xlfn.MAXIFS(E:E,J:J,J91)-_xlfn.MINIFS(E:E,J:J,J91)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32">
-    <cfRule type="expression" dxfId="78" priority="104">
+    <cfRule type="expression" dxfId="189" priority="113">
       <formula>_xlfn.MAXIFS(E:E,J:J,J8)-_xlfn.MINIFS(E:E,J:J,J8)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33">
-    <cfRule type="expression" dxfId="77" priority="93">
+    <cfRule type="expression" dxfId="188" priority="102">
       <formula>_xlfn.MAXIFS(E:E,J:J,J20)-_xlfn.MINIFS(E:E,J:J,J20)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34">
-    <cfRule type="expression" dxfId="76" priority="81">
+    <cfRule type="expression" dxfId="187" priority="90">
       <formula>_xlfn.MAXIFS(E:E,J:J,J32)-_xlfn.MINIFS(E:E,J:J,J32)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35">
-    <cfRule type="expression" dxfId="75" priority="69">
+    <cfRule type="expression" dxfId="186" priority="78">
       <formula>_xlfn.MAXIFS(E:E,J:J,J44)-_xlfn.MINIFS(E:E,J:J,J44)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36">
-    <cfRule type="expression" dxfId="74" priority="57">
+    <cfRule type="expression" dxfId="185" priority="66">
       <formula>_xlfn.MAXIFS(E:E,J:J,J56)-_xlfn.MINIFS(E:E,J:J,J56)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="expression" dxfId="73" priority="45">
+    <cfRule type="expression" dxfId="184" priority="54">
       <formula>_xlfn.MAXIFS(E:E,J:J,J68)-_xlfn.MINIFS(E:E,J:J,J68)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38">
-    <cfRule type="expression" dxfId="72" priority="33">
+    <cfRule type="expression" dxfId="183" priority="42">
       <formula>_xlfn.MAXIFS(E:E,J:J,J80)-_xlfn.MINIFS(E:E,J:J,J80)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z39">
-    <cfRule type="expression" dxfId="71" priority="21">
+    <cfRule type="expression" dxfId="182" priority="30">
       <formula>_xlfn.MAXIFS(E:E,J:J,J92)-_xlfn.MINIFS(E:E,J:J,J92)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA32">
-    <cfRule type="expression" dxfId="70" priority="103">
+    <cfRule type="expression" dxfId="181" priority="112">
       <formula>_xlfn.MAXIFS(E:E,J:J,J9)-_xlfn.MINIFS(E:E,J:J,J9)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA33">
-    <cfRule type="expression" dxfId="69" priority="92">
+    <cfRule type="expression" dxfId="180" priority="101">
       <formula>_xlfn.MAXIFS(E:E,J:J,J21)-_xlfn.MINIFS(E:E,J:J,J21)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34">
-    <cfRule type="expression" dxfId="68" priority="80">
+    <cfRule type="expression" dxfId="179" priority="89">
       <formula>_xlfn.MAXIFS(E:E,J:J,J33)-_xlfn.MINIFS(E:E,J:J,J33)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35">
-    <cfRule type="expression" dxfId="67" priority="68">
+    <cfRule type="expression" dxfId="178" priority="77">
       <formula>_xlfn.MAXIFS(E:E,J:J,J45)-_xlfn.MINIFS(E:E,J:J,J45)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA36">
-    <cfRule type="expression" dxfId="66" priority="56">
+    <cfRule type="expression" dxfId="177" priority="65">
       <formula>_xlfn.MAXIFS(E:E,J:J,J57)-_xlfn.MINIFS(E:E,J:J,J57)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA37">
-    <cfRule type="expression" dxfId="65" priority="44">
+    <cfRule type="expression" dxfId="176" priority="53">
       <formula>_xlfn.MAXIFS(E:E,J:J,J69)-_xlfn.MINIFS(E:E,J:J,J69)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA38">
-    <cfRule type="expression" dxfId="64" priority="32">
+    <cfRule type="expression" dxfId="175" priority="41">
       <formula>_xlfn.MAXIFS(E:E,J:J,J81)-_xlfn.MINIFS(E:E,J:J,J81)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39">
-    <cfRule type="expression" dxfId="63" priority="20">
+    <cfRule type="expression" dxfId="174" priority="29">
       <formula>_xlfn.MAXIFS(E:E,J:J,J93)-_xlfn.MINIFS(E:E,J:J,J93)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32">
-    <cfRule type="expression" dxfId="62" priority="102">
+    <cfRule type="expression" dxfId="173" priority="111">
       <formula>_xlfn.MAXIFS(E:E,J:J,J10)-_xlfn.MINIFS(E:E,J:J,J10)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB33">
-    <cfRule type="expression" dxfId="61" priority="91">
+    <cfRule type="expression" dxfId="172" priority="100">
       <formula>_xlfn.MAXIFS(E:E,J:J,J22)-_xlfn.MINIFS(E:E,J:J,J22)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="60" priority="79">
+    <cfRule type="expression" dxfId="171" priority="88">
       <formula>_xlfn.MAXIFS(E:E,J:J,J34)-_xlfn.MINIFS(E:E,J:J,J34)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB35">
-    <cfRule type="expression" dxfId="59" priority="67">
+    <cfRule type="expression" dxfId="170" priority="76">
       <formula>_xlfn.MAXIFS(E:E,J:J,J46)-_xlfn.MINIFS(E:E,J:J,J46)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36">
-    <cfRule type="expression" dxfId="58" priority="55">
+    <cfRule type="expression" dxfId="169" priority="64">
       <formula>_xlfn.MAXIFS(E:E,J:J,J58)-_xlfn.MINIFS(E:E,J:J,J58)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB37">
-    <cfRule type="expression" dxfId="57" priority="43">
+    <cfRule type="expression" dxfId="168" priority="52">
       <formula>_xlfn.MAXIFS(E:E,J:J,J70)-_xlfn.MINIFS(E:E,J:J,J70)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38">
-    <cfRule type="expression" dxfId="56" priority="31">
+    <cfRule type="expression" dxfId="167" priority="40">
       <formula>_xlfn.MAXIFS(E:E,J:J,J82)-_xlfn.MINIFS(E:E,J:J,J82)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB39">
-    <cfRule type="expression" dxfId="55" priority="19">
+    <cfRule type="expression" dxfId="166" priority="28">
       <formula>_xlfn.MAXIFS(E:E,J:J,J94)-_xlfn.MINIFS(E:E,J:J,J94)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC32">
-    <cfRule type="expression" dxfId="54" priority="101">
+    <cfRule type="expression" dxfId="165" priority="110">
       <formula>_xlfn.MAXIFS(E:E,J:J,J11)-_xlfn.MINIFS(E:E,J:J,J11)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC33">
-    <cfRule type="expression" dxfId="53" priority="90">
+    <cfRule type="expression" dxfId="164" priority="99">
       <formula>_xlfn.MAXIFS(E:E,J:J,J23)-_xlfn.MINIFS(E:E,J:J,J23)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC34">
-    <cfRule type="expression" dxfId="52" priority="78">
+    <cfRule type="expression" dxfId="163" priority="87">
       <formula>_xlfn.MAXIFS(E:E,J:J,J35)-_xlfn.MINIFS(E:E,J:J,J35)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC35">
-    <cfRule type="expression" dxfId="51" priority="66">
+    <cfRule type="expression" dxfId="162" priority="75">
       <formula>_xlfn.MAXIFS(E:E,J:J,J47)-_xlfn.MINIFS(E:E,J:J,J47)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC36">
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="161" priority="63">
       <formula>_xlfn.MAXIFS(E:E,J:J,J59)-_xlfn.MINIFS(E:E,J:J,J59)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC37">
-    <cfRule type="expression" dxfId="49" priority="42">
+    <cfRule type="expression" dxfId="160" priority="51">
       <formula>_xlfn.MAXIFS(E:E,J:J,J71)-_xlfn.MINIFS(E:E,J:J,J71)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC38">
-    <cfRule type="expression" dxfId="48" priority="30">
+    <cfRule type="expression" dxfId="159" priority="39">
       <formula>_xlfn.MAXIFS(E:E,J:J,J83)-_xlfn.MINIFS(E:E,J:J,J83)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC39">
-    <cfRule type="expression" dxfId="47" priority="18">
+    <cfRule type="expression" dxfId="158" priority="27">
       <formula>_xlfn.MAXIFS(E:E,J:J,J95)-_xlfn.MINIFS(E:E,J:J,J95)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33">
-    <cfRule type="expression" dxfId="46" priority="89">
+    <cfRule type="expression" dxfId="157" priority="98">
       <formula>_xlfn.MAXIFS(E:E,J:J,J24)-_xlfn.MINIFS(E:E,J:J,J24)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD34">
-    <cfRule type="expression" dxfId="45" priority="77">
+    <cfRule type="expression" dxfId="156" priority="86">
       <formula>_xlfn.MAXIFS(E:E,J:J,J36)-_xlfn.MINIFS(E:E,J:J,J36)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD35">
-    <cfRule type="expression" dxfId="44" priority="65">
+    <cfRule type="expression" dxfId="155" priority="74">
       <formula>_xlfn.MAXIFS(E:E,J:J,J48)-_xlfn.MINIFS(E:E,J:J,J48)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD36">
-    <cfRule type="expression" dxfId="43" priority="53">
+    <cfRule type="expression" dxfId="154" priority="62">
       <formula>_xlfn.MAXIFS(E:E,J:J,J60)-_xlfn.MINIFS(E:E,J:J,J60)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD37">
-    <cfRule type="expression" dxfId="42" priority="41">
+    <cfRule type="expression" dxfId="153" priority="50">
       <formula>_xlfn.MAXIFS(E:E,J:J,J72)-_xlfn.MINIFS(E:E,J:J,J72)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38">
-    <cfRule type="expression" dxfId="41" priority="29">
+    <cfRule type="expression" dxfId="152" priority="38">
       <formula>_xlfn.MAXIFS(E:E,J:J,J84)-_xlfn.MINIFS(E:E,J:J,J84)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD39">
-    <cfRule type="expression" dxfId="40" priority="17">
+    <cfRule type="expression" dxfId="151" priority="26">
       <formula>_xlfn.MAXIFS(E:E,J:J,J96)-_xlfn.MINIFS(E:E,J:J,J96)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE32">
-    <cfRule type="expression" dxfId="39" priority="99">
+    <cfRule type="expression" dxfId="150" priority="108">
       <formula>_xlfn.MAXIFS(E:E,J:J,J13)-_xlfn.MINIFS(E:E,J:J,J13)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE33">
-    <cfRule type="expression" dxfId="38" priority="88">
+    <cfRule type="expression" dxfId="149" priority="97">
       <formula>_xlfn.MAXIFS(E:E,J:J,J25)-_xlfn.MINIFS(E:E,J:J,J25)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE34">
-    <cfRule type="expression" dxfId="37" priority="76">
+    <cfRule type="expression" dxfId="148" priority="85">
       <formula>_xlfn.MAXIFS(E:E,J:J,J37)-_xlfn.MINIFS(E:E,J:J,J37)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE35">
-    <cfRule type="expression" dxfId="36" priority="64">
+    <cfRule type="expression" dxfId="147" priority="73">
       <formula>_xlfn.MAXIFS(E:E,J:J,J49)-_xlfn.MINIFS(E:E,J:J,J49)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE36">
-    <cfRule type="expression" dxfId="35" priority="52">
+    <cfRule type="expression" dxfId="146" priority="61">
       <formula>_xlfn.MAXIFS(E:E,J:J,J61)-_xlfn.MINIFS(E:E,J:J,J61)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE37">
-    <cfRule type="expression" dxfId="34" priority="40">
+    <cfRule type="expression" dxfId="145" priority="49">
       <formula>_xlfn.MAXIFS(E:E,J:J,J73)-_xlfn.MINIFS(E:E,J:J,J73)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE38">
-    <cfRule type="expression" dxfId="33" priority="28">
+    <cfRule type="expression" dxfId="144" priority="37">
       <formula>_xlfn.MAXIFS(E:E,J:J,J85)-_xlfn.MINIFS(E:E,J:J,J85)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE39">
-    <cfRule type="expression" dxfId="32" priority="16">
+    <cfRule type="expression" dxfId="143" priority="25">
       <formula>_xlfn.MAXIFS(E:E,J:J,J97)-_xlfn.MINIFS(E:E,J:J,J97)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF32">
-    <cfRule type="expression" dxfId="31" priority="98">
+    <cfRule type="expression" dxfId="142" priority="107">
       <formula>"MAXIFS(E:E,J:J,J13)-MINIFS(E:E,J:J,J13)&gt;0.3785"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF33">
-    <cfRule type="expression" dxfId="30" priority="87">
+    <cfRule type="expression" dxfId="141" priority="96">
       <formula>_xlfn.MAXIFS(E:E,J:J,J26)-_xlfn.MINIFS(E:E,J:J,J26)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34">
-    <cfRule type="expression" dxfId="29" priority="75">
+    <cfRule type="expression" dxfId="140" priority="84">
       <formula>_xlfn.MAXIFS(E:E,J:J,J38)-_xlfn.MINIFS(E:E,J:J,J38)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF35">
-    <cfRule type="expression" dxfId="28" priority="63">
+    <cfRule type="expression" dxfId="139" priority="72">
       <formula>_xlfn.MAXIFS(E:E,J:J,J50)-_xlfn.MINIFS(E:E,J:J,J50)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF36">
-    <cfRule type="expression" dxfId="27" priority="51">
+    <cfRule type="expression" dxfId="138" priority="60">
       <formula>_xlfn.MAXIFS(E:E,J:J,J62)-_xlfn.MINIFS(E:E,J:J,J62)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF37">
-    <cfRule type="expression" dxfId="26" priority="39">
+    <cfRule type="expression" dxfId="137" priority="48">
       <formula>_xlfn.MAXIFS(E:E,J:J,J74)-_xlfn.MINIFS(E:E,J:J,J74)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF38">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="136" priority="36">
       <formula>_xlfn.MAXIFS(E:E,J:J,J86)-_xlfn.MINIFS(E:E,J:J,J86)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF39">
-    <cfRule type="expression" dxfId="24" priority="15">
+    <cfRule type="expression" dxfId="135" priority="24">
       <formula>_xlfn.MAXIFS(E:E,J:J,J98)-_xlfn.MINIFS(E:E,J:J,J98)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32">
-    <cfRule type="expression" dxfId="23" priority="97">
+    <cfRule type="expression" dxfId="134" priority="106">
       <formula>_xlfn.MAXIFS(E:E,J:J,J15)-_xlfn.MINIFS(E:E,J:J,J15)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33">
-    <cfRule type="expression" dxfId="22" priority="86">
+    <cfRule type="expression" dxfId="133" priority="95">
       <formula>_xlfn.MAXIFS(E:E,J:J,J27)-_xlfn.MINIFS(E:E,J:J,J27)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34">
-    <cfRule type="expression" dxfId="21" priority="74">
+    <cfRule type="expression" dxfId="132" priority="83">
       <formula>_xlfn.MAXIFS(E:E,J:J,J39)-_xlfn.MINIFS(E:E,J:J,J39)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG35">
-    <cfRule type="expression" dxfId="20" priority="62">
+    <cfRule type="expression" dxfId="131" priority="71">
       <formula>_xlfn.MAXIFS(E:E,J:J,J51)-_xlfn.MINIFS(E:E,J:J,J51)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG36">
-    <cfRule type="expression" dxfId="19" priority="50">
+    <cfRule type="expression" dxfId="130" priority="59">
       <formula>_xlfn.MAXIFS(E:E,J:J,J63)-_xlfn.MINIFS(E:E,J:J,J63)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG37">
-    <cfRule type="expression" dxfId="18" priority="38">
+    <cfRule type="expression" dxfId="129" priority="47">
       <formula>_xlfn.MAXIFS(E:E,J:J,J75)-_xlfn.MINIFS(E:E,J:J,J75)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG38">
-    <cfRule type="expression" dxfId="17" priority="26">
+    <cfRule type="expression" dxfId="128" priority="35">
       <formula>_xlfn.MAXIFS(E:E,J:J,J87)-_xlfn.MINIFS(E:E,J:J,J87)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG39">
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="127" priority="23">
       <formula>_xlfn.MAXIFS(E:E,J:J,J99)-_xlfn.MINIFS(E:E,J:J,J99)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32">
-    <cfRule type="expression" dxfId="15" priority="96">
+    <cfRule type="expression" dxfId="126" priority="105">
       <formula>_xlfn.MAXIFS(E:E,J:J,J16)-_xlfn.MINIFS(E:E,J:J,J16)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH33">
-    <cfRule type="expression" dxfId="14" priority="85">
+    <cfRule type="expression" dxfId="125" priority="94">
       <formula>_xlfn.MAXIFS(E:E,J:J,J28)-_xlfn.MINIFS(E:E,J:J,J28)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34">
-    <cfRule type="expression" dxfId="13" priority="73">
+    <cfRule type="expression" dxfId="124" priority="82">
       <formula>_xlfn.MAXIFS(E:E,J:J,J40)-_xlfn.MINIFS(E:E,J:J,J40)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH35">
-    <cfRule type="expression" dxfId="12" priority="61">
+    <cfRule type="expression" dxfId="123" priority="70">
       <formula>_xlfn.MAXIFS(E:E,J:J,J52)-_xlfn.MINIFS(E:E,J:J,J52)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH36">
-    <cfRule type="expression" dxfId="11" priority="49">
+    <cfRule type="expression" dxfId="122" priority="58">
       <formula>_xlfn.MAXIFS(E:E,J:J,J64)-_xlfn.MINIFS(E:E,J:J,J64)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH37">
-    <cfRule type="expression" dxfId="10" priority="37">
+    <cfRule type="expression" dxfId="121" priority="46">
       <formula>_xlfn.MAXIFS(E:E,J:J,J76)-_xlfn.MINIFS(E:E,J:J,J76)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH38">
-    <cfRule type="expression" dxfId="9" priority="25">
+    <cfRule type="expression" dxfId="120" priority="34">
       <formula>_xlfn.MAXIFS(E:E,J:J,J88)-_xlfn.MINIFS(E:E,J:J,J88)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH39">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="119" priority="22">
       <formula>_xlfn.MAXIFS(E:E,J:J,J100)-_xlfn.MINIFS(E:E,J:J,J100)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI32">
-    <cfRule type="expression" dxfId="7" priority="95">
+    <cfRule type="expression" dxfId="118" priority="104">
       <formula>_xlfn.MAXIFS(E:E,J:J,J17)-_xlfn.MINIFS(E:E,J:J,J17)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI33">
-    <cfRule type="expression" dxfId="6" priority="84">
+    <cfRule type="expression" dxfId="117" priority="93">
       <formula>_xlfn.MAXIFS(E:E,J:J,J29)-_xlfn.MINIFS(E:E,J:J,J29)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI34">
-    <cfRule type="expression" dxfId="5" priority="72">
+    <cfRule type="expression" dxfId="116" priority="81">
       <formula>_xlfn.MAXIFS(E:E,J:J,J41)-_xlfn.MINIFS(E:E,J:J,J41)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI35">
-    <cfRule type="expression" dxfId="4" priority="60">
+    <cfRule type="expression" dxfId="115" priority="69">
       <formula>_xlfn.MAXIFS(E:E,J:J,J53)-_xlfn.MINIFS(E:E,J:J,J53)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI36">
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="114" priority="57">
       <formula>_xlfn.MAXIFS(E:E,J:J,J65)-_xlfn.MINIFS(E:E,J:J,J65)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI37">
-    <cfRule type="expression" dxfId="2" priority="36">
+    <cfRule type="expression" dxfId="113" priority="45">
       <formula>_xlfn.MAXIFS(E:E,J:J,J77)-_xlfn.MINIFS(E:E,J:J,J77)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI38">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="112" priority="33">
       <formula>_xlfn.MAXIFS(E:E,J:J,J89)-_xlfn.MINIFS(E:E,J:J,J89)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI39">
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="111" priority="21">
       <formula>_xlfn.MAXIFS(E:E,J:J,J101)-_xlfn.MINIFS(E:E,J:J,J101)&gt;0.3785</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6:AI13">
+    <cfRule type="containsBlanks" dxfId="110" priority="5">
+      <formula>LEN(TRIM(X6))=0</formula>
+    </cfRule>
+    <cfRule type="containsErrors" dxfId="109" priority="4">
+      <formula>ISERROR(X6)</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="3" operator="containsText" text="n/a">
+      <formula>NOT(ISERROR(SEARCH("n/a",X6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="2" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",X6)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="1">
+      <formula>ISNUMBER(X6)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16297,7 +19240,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
         <v>168</v>
@@ -16311,7 +19254,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>168</v>
@@ -16325,7 +19268,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
         <v>168</v>
@@ -16339,7 +19282,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
         <v>168</v>
@@ -16353,7 +19296,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
         <v>168</v>
@@ -16367,7 +19310,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
         <v>168</v>
@@ -16381,7 +19324,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -16395,7 +19338,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
@@ -16409,7 +19352,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
         <v>168</v>
@@ -16423,7 +19366,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" t="s">
         <v>168</v>
@@ -16437,7 +19380,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
         <v>168</v>
@@ -16451,7 +19394,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" t="s">
         <v>168</v>
@@ -16465,7 +19408,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s">
         <v>168</v>
@@ -16479,7 +19422,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
         <v>168</v>
@@ -16493,7 +19436,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
         <v>168</v>
@@ -16507,7 +19450,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" t="s">
         <v>168</v>
@@ -16521,7 +19464,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17" t="s">
         <v>168</v>
@@ -16535,7 +19478,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
         <v>168</v>
@@ -16549,7 +19492,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
         <v>168</v>
@@ -16563,7 +19506,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
         <v>168</v>
@@ -16577,7 +19520,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
         <v>168</v>
@@ -16591,7 +19534,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
         <v>168</v>
@@ -16605,7 +19548,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>168</v>
@@ -16619,7 +19562,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
         <v>168</v>
@@ -16633,7 +19576,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
         <v>168</v>
@@ -16647,7 +19590,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
         <v>168</v>
@@ -16661,7 +19604,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
         <v>168</v>
@@ -16675,7 +19618,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s">
         <v>168</v>
@@ -16689,7 +19632,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s">
         <v>168</v>
@@ -16703,7 +19646,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s">
         <v>168</v>
@@ -16717,7 +19660,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s">
         <v>168</v>
@@ -16731,7 +19674,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B32" t="s">
         <v>168</v>
@@ -16745,7 +19688,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" t="s">
         <v>168</v>
@@ -16759,7 +19702,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
         <v>168</v>
@@ -16773,7 +19716,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" t="s">
         <v>168</v>
@@ -16787,7 +19730,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
         <v>168</v>
@@ -16801,7 +19744,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B37" t="s">
         <v>168</v>
@@ -16815,7 +19758,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
         <v>168</v>
@@ -16829,7 +19772,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
         <v>168</v>
@@ -16843,7 +19786,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B40" t="s">
         <v>168</v>
@@ -16857,7 +19800,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s">
         <v>168</v>
@@ -16871,7 +19814,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s">
         <v>168</v>
@@ -16885,7 +19828,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s">
         <v>168</v>
@@ -16899,7 +19842,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s">
         <v>168</v>
@@ -16913,7 +19856,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B45" t="s">
         <v>168</v>
@@ -16927,7 +19870,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B46" t="s">
         <v>168</v>
@@ -16941,7 +19884,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
         <v>168</v>
@@ -16955,7 +19898,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B48" t="s">
         <v>168</v>
@@ -16969,7 +19912,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
         <v>168</v>
@@ -16983,7 +19926,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
         <v>168</v>
@@ -16997,7 +19940,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s">
         <v>168</v>
@@ -17011,7 +19954,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B52" t="s">
         <v>168</v>
@@ -17025,7 +19968,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B53" t="s">
         <v>168</v>
@@ -17039,7 +19982,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s">
         <v>168</v>
@@ -17053,7 +19996,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B55" t="s">
         <v>168</v>
@@ -17067,7 +20010,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56" t="s">
         <v>168</v>
@@ -17081,7 +20024,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s">
         <v>168</v>
@@ -17095,7 +20038,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B58" t="s">
         <v>168</v>
@@ -17109,7 +20052,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B59" t="s">
         <v>168</v>
@@ -17123,7 +20066,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B60" t="s">
         <v>168</v>
@@ -17137,7 +20080,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B61" t="s">
         <v>168</v>
@@ -17151,7 +20094,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B62" t="s">
         <v>168</v>
@@ -17165,7 +20108,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s">
         <v>168</v>
@@ -17179,7 +20122,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B64" t="s">
         <v>168</v>
@@ -17193,7 +20136,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B65" t="s">
         <v>168</v>
@@ -17207,7 +20150,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B66" t="s">
         <v>168</v>
@@ -17221,7 +20164,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B67" t="s">
         <v>168</v>
@@ -17235,7 +20178,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B68" t="s">
         <v>168</v>
@@ -17249,7 +20192,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B69" t="s">
         <v>168</v>
@@ -17263,7 +20206,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B70" t="s">
         <v>168</v>
@@ -17277,7 +20220,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s">
         <v>168</v>
@@ -17291,7 +20234,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
         <v>168</v>
@@ -17305,7 +20248,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B73" t="s">
         <v>168</v>
@@ -17319,7 +20262,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B74" t="s">
         <v>168</v>
@@ -17333,7 +20276,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B75" t="s">
         <v>168</v>
@@ -17347,7 +20290,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
         <v>168</v>
@@ -17361,7 +20304,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B77" t="s">
         <v>168</v>
@@ -17375,7 +20318,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" t="s">
         <v>168</v>
@@ -17389,7 +20332,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
         <v>168</v>
@@ -17403,7 +20346,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
         <v>168</v>
@@ -17417,7 +20360,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B81" t="s">
         <v>168</v>
@@ -17431,7 +20374,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
         <v>168</v>
@@ -17445,7 +20388,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B83" t="s">
         <v>168</v>
@@ -17459,7 +20402,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B84" t="s">
         <v>168</v>
@@ -17473,7 +20416,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B85" t="s">
         <v>168</v>
@@ -17487,7 +20430,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B86" t="s">
         <v>168</v>
@@ -17501,7 +20444,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B87" t="s">
         <v>168</v>
@@ -17515,7 +20458,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B88" t="s">
         <v>168</v>
@@ -17529,7 +20472,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B89" t="s">
         <v>168</v>
@@ -17543,7 +20486,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B90" t="s">
         <v>168</v>
@@ -17557,7 +20500,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B91" t="s">
         <v>168</v>
@@ -17571,7 +20514,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B92" t="s">
         <v>168</v>
@@ -17585,7 +20528,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B93" t="s">
         <v>168</v>
@@ -17599,7 +20542,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B94" t="s">
         <v>168</v>
@@ -17613,7 +20556,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B95" t="s">
         <v>168</v>
@@ -17627,7 +20570,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B96" t="s">
         <v>168</v>

--- a/app/data/241220_NfLPLADx_Plasma_demo/251006/241220_NfLPLADx_Plasma_demo.xlsx
+++ b/app/data/241220_NfLPLADx_Plasma_demo/251006/241220_NfLPLADx_Plasma_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wehieduau-my.sharepoint.com/personal/smith_j_wehi_edu_au/Documents/Documents/Testing-Git/proxipal/app/data/241220_NfLPLADx_Plasma_demo/251006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="13_ncr:1_{E06BAA93-A5C0-8B44-A78C-82EB619886CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE4EFE1D-4C2D-497D-8672-72AE82B4B323}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{E06BAA93-A5C0-8B44-A78C-82EB619886CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72BF2A92-912D-436B-92E1-F99D1E9369F1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4D99390B-9292-4C1E-BC74-DE0E0B893356}"/>
   </bookViews>
@@ -332,22 +332,6 @@
     <t>var_4</t>
   </si>
   <si>
-    <t>usr_
-std</t>
-  </si>
-  <si>
-    <t>usr_
-recovery</t>
-  </si>
-  <si>
-    <t>usr_
-ignore</t>
-  </si>
-  <si>
-    <t>usr_
-comments</t>
-  </si>
-  <si>
     <t>Labels</t>
   </si>
   <si>
@@ -711,10 +695,6 @@
     <t>Operator(s)</t>
   </si>
   <si>
-    <t>usr_
-raw_ng/L</t>
-  </si>
-  <si>
     <t>ng/L</t>
   </si>
   <si>
@@ -730,10 +710,6 @@
     <t>var_4 (desc)</t>
   </si>
   <si>
-    <t>usr_
-mean_ng/L</t>
-  </si>
-  <si>
     <t>std5</t>
   </si>
   <si>
@@ -954,6 +930,24 @@
   </si>
   <si>
     <t>unused</t>
+  </si>
+  <si>
+    <t>usr_std</t>
+  </si>
+  <si>
+    <t>usr_raw_ng/L</t>
+  </si>
+  <si>
+    <t>usr_mean_ng/L</t>
+  </si>
+  <si>
+    <t>usr_recovery</t>
+  </si>
+  <si>
+    <t>usr_ignore</t>
+  </si>
+  <si>
+    <t>usr_comments</t>
   </si>
 </sst>
 </file>
@@ -1767,33 +1761,30 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1805,13 +1796,16 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{2A611197-FBC9-CE4F-A83B-A056C6DF78A3}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="520">
+  <dxfs count="106">
     <dxf>
       <fill>
         <patternFill>
@@ -1844,2896 +1838,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8676,7 +5780,7 @@
   <dimension ref="A1:AR112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK18" sqref="AK18"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8690,11 +5794,12 @@
     <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2" customWidth="1"/>
-    <col min="12" max="16" width="9.140625" style="2"/>
-    <col min="17" max="17" width="13.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="12" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="2" customWidth="1"/>
+    <col min="12" max="15" width="9.140625" style="2"/>
+    <col min="16" max="16" width="12.140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" style="2" customWidth="1"/>
     <col min="21" max="21" width="26.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="3.42578125" style="3" customWidth="1"/>
     <col min="23" max="23" width="9.140625" style="3"/>
@@ -8710,7 +5815,7 @@
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="V1" s="2"/>
     </row>
@@ -8720,18 +5825,18 @@
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="147" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D3" s="147"/>
       <c r="E3" s="148"/>
@@ -8745,7 +5850,7 @@
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="147" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D4" s="148"/>
       <c r="E4" s="148"/>
@@ -8806,25 +5911,25 @@
         <v>19</v>
       </c>
       <c r="P5" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="W5" s="58" t="s">
         <v>20</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="R5" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="S5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="W5" s="58" t="s">
-        <v>24</v>
       </c>
       <c r="X5" s="59">
         <v>1</v>
@@ -8863,7 +5968,7 @@
         <v>12</v>
       </c>
       <c r="AK5" s="155" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="AL5" s="150"/>
       <c r="AM5" s="34"/>
@@ -8878,13 +5983,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E6" s="7">
         <v>21.27</v>
@@ -8943,46 +6048,46 @@
       </c>
       <c r="U6" s="12"/>
       <c r="W6" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="X6" s="157" t="s">
+        <v>22</v>
+      </c>
+      <c r="X6" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y6" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z6" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA6" s="157" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB6" s="158" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC6" s="158" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD6" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE6" s="159" t="s">
+        <v>179</v>
+      </c>
+      <c r="AF6" s="160" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG6" s="160" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH6" s="161" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI6" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK6" s="149" t="s">
         <v>203</v>
-      </c>
-      <c r="Y6" s="157" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z6" s="158" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA6" s="158" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB6" s="159" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC6" s="159" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD6" s="160" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE6" s="160" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF6" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG6" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH6" s="162" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI6" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK6" s="149" t="s">
-        <v>209</v>
       </c>
       <c r="AL6" s="34"/>
       <c r="AM6" s="34"/>
@@ -8997,13 +6102,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E7" s="15">
         <v>21.879000000000001</v>
@@ -9056,49 +6161,49 @@
       </c>
       <c r="U7" s="20"/>
       <c r="W7" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="163" t="s">
+        <v>24</v>
+      </c>
+      <c r="X7" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y7" s="162" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z7" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA7" s="157" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB7" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC7" s="158" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD7" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE7" s="159" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF7" s="160" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG7" s="160" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH7" s="161" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI7" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK7" s="149" t="s">
         <v>204</v>
-      </c>
-      <c r="Y7" s="163" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z7" s="158" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA7" s="158" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB7" s="159" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC7" s="159" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD7" s="160" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE7" s="160" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF7" s="161" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG7" s="161" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH7" s="162" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI7" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AK7" s="149" t="s">
-        <v>210</v>
       </c>
       <c r="AL7" s="34"/>
       <c r="AM7" s="34"/>
@@ -9113,13 +6218,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E8" s="15">
         <v>21.475000000000001</v>
@@ -9172,46 +6277,46 @@
       </c>
       <c r="U8" s="20"/>
       <c r="W8" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" s="157" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="156" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y8" s="156" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z8" s="157" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA8" s="157" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB8" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC8" s="158" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD8" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE8" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF8" s="160" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG8" s="160" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH8" s="161" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI8" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="AK8" s="149" t="s">
         <v>205</v>
-      </c>
-      <c r="Y8" s="157" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z8" s="158" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA8" s="158" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB8" s="159" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC8" s="159" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD8" s="160" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE8" s="160" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF8" s="161" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG8" s="161" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH8" s="162" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI8" s="141" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK8" s="149" t="s">
-        <v>211</v>
       </c>
       <c r="AL8" s="34"/>
       <c r="AM8" s="34"/>
@@ -9226,13 +6331,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E9" s="15">
         <v>21.466000000000001</v>
@@ -9285,46 +6390,46 @@
       </c>
       <c r="U9" s="20"/>
       <c r="W9" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="X9" s="160" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y9" s="160" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z9" s="158" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA9" s="158" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB9" s="159" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC9" s="159" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD9" s="160" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE9" s="160" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF9" s="161" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="159" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y9" s="159" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z9" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA9" s="157" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB9" s="158" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC9" s="158" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD9" s="159" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE9" s="159" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF9" s="160" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG9" s="160" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH9" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="AG9" s="161" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH9" s="162" t="s">
-        <v>202</v>
-      </c>
       <c r="AI9" s="141" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AK9" s="149" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="AL9" s="34"/>
       <c r="AM9" s="34"/>
@@ -9339,13 +6444,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E10" s="15">
         <v>13.430999999999999</v>
@@ -9398,46 +6503,46 @@
       </c>
       <c r="U10" s="20"/>
       <c r="W10" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="X10" s="160" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y10" s="160" t="s">
-        <v>173</v>
-      </c>
-      <c r="Z10" s="158" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA10" s="158" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB10" s="159" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC10" s="159" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD10" s="160" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE10" s="160" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF10" s="161" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" s="159" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y10" s="159" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z10" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA10" s="157" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB10" s="158" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC10" s="158" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD10" s="159" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE10" s="159" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF10" s="160" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG10" s="160" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH10" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="AG10" s="161" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH10" s="157" t="s">
-        <v>203</v>
-      </c>
       <c r="AI10" s="141" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AK10" s="149" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AL10" s="34"/>
       <c r="AM10" s="34"/>
@@ -9452,13 +6557,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E11" s="15">
         <v>13.622</v>
@@ -9511,46 +6616,46 @@
       </c>
       <c r="U11" s="20"/>
       <c r="W11" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="X11" s="160" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y11" s="160" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z11" s="158" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA11" s="158" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB11" s="159" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC11" s="159" t="s">
-        <v>163</v>
-      </c>
-      <c r="AD11" s="160" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE11" s="160" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF11" s="161" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG11" s="161" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH11" s="157" t="s">
-        <v>203</v>
+        <v>32</v>
+      </c>
+      <c r="X11" s="159" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y11" s="159" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z11" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA11" s="157" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB11" s="158" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC11" s="158" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD11" s="159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE11" s="159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF11" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG11" s="160" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH11" s="156" t="s">
+        <v>197</v>
       </c>
       <c r="AI11" s="141" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AK11" s="149" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="AL11" s="34"/>
       <c r="AM11" s="34"/>
@@ -9565,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E12" s="15">
         <v>24.148</v>
@@ -9624,46 +6729,46 @@
       </c>
       <c r="U12" s="20"/>
       <c r="W12" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="X12" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y12" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z12" s="158" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA12" s="158" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB12" s="159" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC12" s="159" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD12" s="160" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE12" s="160" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF12" s="161" t="s">
-        <v>199</v>
-      </c>
-      <c r="AG12" s="161" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH12" s="157" t="s">
-        <v>203</v>
+        <v>34</v>
+      </c>
+      <c r="X12" s="156" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y12" s="156" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z12" s="157" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA12" s="157" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB12" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC12" s="158" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD12" s="159" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE12" s="159" t="s">
+        <v>185</v>
+      </c>
+      <c r="AF12" s="160" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG12" s="160" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH12" s="156" t="s">
+        <v>197</v>
       </c>
       <c r="AI12" s="141" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AK12" s="149" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
@@ -9678,13 +6783,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E13" s="15">
         <v>24.302</v>
@@ -9737,46 +6842,46 @@
       </c>
       <c r="U13" s="20"/>
       <c r="W13" s="64" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X13" s="142" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Y13" s="142" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Z13" s="143" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AA13" s="143" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AB13" s="144" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AC13" s="144" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="AD13" s="145" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AE13" s="145" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AF13" s="139" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AG13" s="139" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AH13" s="142" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AI13" s="146" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AK13" s="149" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AL13" s="34"/>
       <c r="AM13" s="34"/>
@@ -9791,13 +6896,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E14" s="15">
         <v>24.309000000000001</v>
@@ -9853,15 +6958,15 @@
       <c r="Y14" s="128"/>
       <c r="Z14" s="128"/>
       <c r="AA14" s="128"/>
-      <c r="AB14" s="156"/>
-      <c r="AC14" s="156"/>
+      <c r="AB14" s="166"/>
+      <c r="AC14" s="166"/>
       <c r="AE14" s="128"/>
       <c r="AF14" s="128"/>
       <c r="AG14" s="128"/>
       <c r="AH14" s="128"/>
       <c r="AI14" s="128"/>
       <c r="AK14" s="149" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AL14" s="34"/>
       <c r="AM14" s="34"/>
@@ -9876,13 +6981,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E15" s="15">
         <v>24.300999999999998</v>
@@ -9935,10 +7040,10 @@
       </c>
       <c r="U15" s="20"/>
       <c r="W15" s="57" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AK15" s="149" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="AL15" s="34"/>
       <c r="AM15" s="34"/>
@@ -9953,13 +7058,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E16" s="15">
         <v>24.713000000000001</v>
@@ -10049,7 +7154,7 @@
         <v>12</v>
       </c>
       <c r="AK16" s="149" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AL16" s="34"/>
       <c r="AM16" s="34"/>
@@ -10064,16 +7169,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F17" s="16">
         <v>81.205070000000006</v>
@@ -10123,46 +7228,46 @@
       </c>
       <c r="U17" s="20"/>
       <c r="W17" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="X17" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y17" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z17" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA17" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB17" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC17" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD17" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE17" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF17" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG17" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH17" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI17" s="165" t="s">
-        <v>166</v>
+        <v>22</v>
+      </c>
+      <c r="X17" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z17" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA17" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB17" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC17" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD17" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE17" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF17" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG17" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH17" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI17" s="164" t="s">
+        <v>160</v>
       </c>
       <c r="AK17" s="149" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AL17" s="34"/>
       <c r="AM17" s="34"/>
@@ -10177,13 +7282,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E18" s="7">
         <v>25.375</v>
@@ -10242,43 +7347,43 @@
       </c>
       <c r="U18" s="12"/>
       <c r="W18" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="X18" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y18" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z18" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA18" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB18" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC18" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD18" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE18" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF18" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG18" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH18" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI18" s="165" t="s">
-        <v>166</v>
+        <v>24</v>
+      </c>
+      <c r="X18" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y18" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z18" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA18" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB18" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC18" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD18" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE18" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF18" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG18" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH18" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI18" s="164" t="s">
+        <v>160</v>
       </c>
       <c r="AK18" s="149"/>
       <c r="AL18" s="34"/>
@@ -10294,13 +7399,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E19" s="15">
         <v>25.347000000000001</v>
@@ -10353,43 +7458,43 @@
       </c>
       <c r="U19" s="20"/>
       <c r="W19" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="X19" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y19" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z19" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA19" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB19" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC19" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD19" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE19" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF19" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG19" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH19" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI19" s="165" t="s">
-        <v>166</v>
+        <v>26</v>
+      </c>
+      <c r="X19" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y19" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z19" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA19" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB19" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC19" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD19" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE19" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF19" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG19" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH19" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI19" s="164" t="s">
+        <v>160</v>
       </c>
       <c r="AK19" s="149"/>
       <c r="AL19" s="34"/>
@@ -10405,13 +7510,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E20" s="15">
         <v>23.881</v>
@@ -10464,43 +7569,43 @@
       </c>
       <c r="U20" s="20"/>
       <c r="W20" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="X20" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y20" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z20" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA20" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB20" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC20" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD20" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE20" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF20" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG20" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH20" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI20" s="165" t="s">
-        <v>166</v>
+        <v>28</v>
+      </c>
+      <c r="X20" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y20" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z20" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA20" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB20" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC20" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD20" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE20" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF20" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG20" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH20" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI20" s="164" t="s">
+        <v>160</v>
       </c>
       <c r="AK20" s="149"/>
       <c r="AL20" s="34"/>
@@ -10516,13 +7621,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E21" s="15">
         <v>23.812999999999999</v>
@@ -10575,43 +7680,43 @@
       </c>
       <c r="U21" s="20"/>
       <c r="W21" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="X21" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y21" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z21" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA21" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB21" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC21" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD21" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE21" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF21" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG21" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH21" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI21" s="165" t="s">
-        <v>166</v>
+        <v>30</v>
+      </c>
+      <c r="X21" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y21" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z21" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA21" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB21" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC21" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD21" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE21" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF21" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG21" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH21" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI21" s="164" t="s">
+        <v>160</v>
       </c>
       <c r="AK21" s="149"/>
       <c r="AL21" s="34"/>
@@ -10627,13 +7732,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E22" s="15">
         <v>15.765000000000001</v>
@@ -10686,43 +7791,43 @@
       </c>
       <c r="U22" s="20"/>
       <c r="W22" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="X22" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y22" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z22" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA22" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB22" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC22" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD22" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE22" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF22" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG22" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH22" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI22" s="165" t="s">
-        <v>166</v>
+        <v>32</v>
+      </c>
+      <c r="X22" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y22" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z22" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA22" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB22" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC22" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD22" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE22" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF22" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG22" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH22" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI22" s="164" t="s">
+        <v>160</v>
       </c>
       <c r="AK22" s="149"/>
       <c r="AL22" s="34"/>
@@ -10738,13 +7843,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E23" s="15">
         <v>15.782999999999999</v>
@@ -10797,43 +7902,43 @@
       </c>
       <c r="U23" s="20"/>
       <c r="W23" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="X23" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y23" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z23" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA23" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB23" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC23" s="164" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD23" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE23" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AF23" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG23" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AH23" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI23" s="165" t="s">
-        <v>166</v>
+        <v>34</v>
+      </c>
+      <c r="X23" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y23" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z23" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA23" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB23" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC23" s="163" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD23" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE23" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF23" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG23" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH23" s="163" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI23" s="164" t="s">
+        <v>160</v>
       </c>
       <c r="AK23" s="151"/>
       <c r="AL23" s="34"/>
@@ -10849,13 +7954,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E24" s="15">
         <v>24.158999999999999</v>
@@ -10908,43 +8013,43 @@
       </c>
       <c r="U24" s="20"/>
       <c r="W24" s="64" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X24" s="140" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Y24" s="140" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Z24" s="140" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AA24" s="140" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AB24" s="140" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AC24" s="140" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="AD24" s="140" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AE24" s="140" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AF24" s="140" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AG24" s="140" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AH24" s="140" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI24" s="166" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="AI24" s="165" t="s">
+        <v>160</v>
       </c>
       <c r="AK24" s="151"/>
       <c r="AL24" s="34"/>
@@ -10960,13 +8065,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E25" s="15">
         <v>24.151</v>
@@ -11019,11 +8124,11 @@
       </c>
       <c r="U25" s="20"/>
       <c r="W25" s="120" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="X25" s="122"/>
       <c r="Y25" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Z25" s="124"/>
       <c r="AA25" s="124"/>
@@ -11049,13 +8154,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E26" s="15">
         <v>25.364000000000001</v>
@@ -11108,7 +8213,7 @@
       </c>
       <c r="U26" s="20"/>
       <c r="W26" s="120" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X26" s="122"/>
       <c r="Z26" s="124"/>
@@ -11135,13 +8240,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E27" s="15">
         <v>25.376000000000001</v>
@@ -11194,7 +8299,7 @@
       </c>
       <c r="U27" s="20"/>
       <c r="W27" s="120" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X27" s="122"/>
       <c r="Z27" s="124"/>
@@ -11221,13 +8326,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E28" s="15">
         <v>25.896999999999998</v>
@@ -11280,7 +8385,7 @@
       </c>
       <c r="U28" s="20"/>
       <c r="W28" s="121" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="X28" s="123"/>
       <c r="Y28" s="29"/>
@@ -11308,16 +8413,16 @@
         <v>24</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F29" s="24">
         <v>0</v>
@@ -11380,13 +8485,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E30" s="15">
         <v>23.672999999999998</v>
@@ -11445,7 +8550,7 @@
       </c>
       <c r="U30" s="20"/>
       <c r="W30" s="57" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AK30" s="151"/>
       <c r="AL30" s="34"/>
@@ -11461,13 +8566,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E31" s="15">
         <v>23.577999999999999</v>
@@ -11520,7 +8625,7 @@
       </c>
       <c r="U31" s="20"/>
       <c r="W31" s="58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="X31" s="59">
         <v>1</v>
@@ -11572,13 +8677,13 @@
         <v>27</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E32" s="15">
         <v>22.611999999999998</v>
@@ -11631,7 +8736,7 @@
       </c>
       <c r="U32" s="20"/>
       <c r="W32" s="61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X32" s="110" cm="1">
         <f t="array" ref="X32:AI32">TRANSPOSE(E6:E17)</f>
@@ -11684,13 +8789,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E33" s="15">
         <v>22.670999999999999</v>
@@ -11743,7 +8848,7 @@
       </c>
       <c r="U33" s="20"/>
       <c r="W33" s="97" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X33" s="113" cm="1">
         <f t="array" ref="X33:AI33">TRANSPOSE(E18:E29)</f>
@@ -11796,13 +8901,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E34" s="15">
         <v>18.303000000000001</v>
@@ -11855,7 +8960,7 @@
       </c>
       <c r="U34" s="20"/>
       <c r="W34" s="61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X34" s="113" cm="1">
         <f t="array" ref="X34:AI34">TRANSPOSE(E30:E41)</f>
@@ -11908,13 +9013,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E35" s="15">
         <v>18.045999999999999</v>
@@ -11967,7 +9072,7 @@
       </c>
       <c r="U35" s="20"/>
       <c r="W35" s="97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X35" s="113" cm="1">
         <f t="array" ref="X35:AI35">TRANSPOSE(E42:E53)</f>
@@ -12020,13 +9125,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E36" s="15">
         <v>24.056000000000001</v>
@@ -12079,7 +9184,7 @@
       </c>
       <c r="U36" s="20"/>
       <c r="W36" s="61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X36" s="113" cm="1">
         <f t="array" ref="X36:AI36">TRANSPOSE(E54:E65)</f>
@@ -12132,13 +9237,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E37" s="15">
         <v>24.073</v>
@@ -12191,7 +9296,7 @@
       </c>
       <c r="U37" s="20"/>
       <c r="W37" s="97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X37" s="113" cm="1">
         <f t="array" ref="X37:AI37">TRANSPOSE(E66:E77)</f>
@@ -12244,13 +9349,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E38" s="15">
         <v>25.183</v>
@@ -12303,7 +9408,7 @@
       </c>
       <c r="U38" s="20"/>
       <c r="W38" s="61" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X38" s="113" cm="1">
         <f t="array" ref="X38:AI38">TRANSPOSE(E78:E89)</f>
@@ -12356,13 +9461,13 @@
         <v>34</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E39" s="15">
         <v>25.309000000000001</v>
@@ -12415,7 +9520,7 @@
       </c>
       <c r="U39" s="20"/>
       <c r="W39" s="97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X39" s="116" cm="1">
         <f t="array" ref="X39:AI39">TRANSPOSE(E90:E101)</f>
@@ -12468,13 +9573,13 @@
         <v>35</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E40" s="15">
         <v>24.561</v>
@@ -12541,16 +9646,16 @@
         <v>36</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F41" s="16">
         <v>0</v>
@@ -12615,13 +9720,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E42" s="7">
         <v>25.425000000000001</v>
@@ -12680,7 +9785,7 @@
       </c>
       <c r="U42" s="12"/>
       <c r="W42" s="57" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AB42" s="33"/>
       <c r="AC42" s="34"/>
@@ -12698,13 +9803,13 @@
         <v>38</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E43" s="15">
         <v>25.302</v>
@@ -12757,29 +9862,29 @@
       </c>
       <c r="U43" s="20"/>
       <c r="W43" s="58" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X43" s="106"/>
       <c r="Y43" s="88" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Z43" s="59" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA43" s="88" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AB43" s="59" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AC43" s="88" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="AD43" s="60" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="AE43" s="88" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
@@ -12799,13 +9904,13 @@
         <v>39</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E44" s="15">
         <v>22.402999999999999</v>
@@ -12858,31 +9963,31 @@
       </c>
       <c r="U44" s="20"/>
       <c r="W44" s="64" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="X44" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y44" s="91" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Z44" s="107" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AA44" s="91" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AB44" s="107" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AC44" s="91" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AD44" s="108" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AE44" s="91" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
@@ -12902,13 +10007,13 @@
         <v>40</v>
       </c>
       <c r="B45" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E45" s="15">
         <v>22.425000000000001</v>
@@ -12998,13 +10103,13 @@
         <v>41</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E46" s="15">
         <v>20.561</v>
@@ -13094,13 +10199,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E47" s="15">
         <v>20.492000000000001</v>
@@ -13190,13 +10295,13 @@
         <v>43</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E48" s="15">
         <v>21.234000000000002</v>
@@ -13286,13 +10391,13 @@
         <v>44</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E49" s="15">
         <v>21.506</v>
@@ -13382,13 +10487,13 @@
         <v>45</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E50" s="15">
         <v>26.407</v>
@@ -13478,13 +10583,13 @@
         <v>46</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E51" s="15">
         <v>26.423999999999999</v>
@@ -13574,13 +10679,13 @@
         <v>47</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E52" s="15">
         <v>24.638999999999999</v>
@@ -13667,16 +10772,16 @@
         <v>48</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E53" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F53" s="24">
         <v>0</v>
@@ -13727,7 +10832,7 @@
       <c r="U53" s="28"/>
       <c r="W53" s="41"/>
       <c r="X53" s="68" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Y53" s="69" cm="1">
         <f t="array" aca="1" ref="Y53" ca="1">IFERROR(INDEX(LINEST(OFFSET(Y45,0,0,MIN(COUNT(Y45:Y51),COUNT($X$45:$X$51))), OFFSET($X$45,0,0,MIN(COUNT(Y45:Y51),COUNT($X$45:$X$51)))),1), "")</f>
@@ -13774,13 +10879,13 @@
         <v>49</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E54" s="15">
         <v>25.300999999999998</v>
@@ -13840,7 +10945,7 @@
       <c r="U54" s="20"/>
       <c r="W54" s="72"/>
       <c r="X54" s="73" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Y54" s="74" cm="1">
         <f t="array" aca="1" ref="Y54" ca="1">IFERROR(INDEX(LINEST(OFFSET(Y45,0,0,MIN(COUNT(Y45:Y51),COUNT($X$45:$X$51))), OFFSET($X$45,0,0,MIN(COUNT(Y45:Y51),COUNT($X$45:$X$51)))),2), "")</f>
@@ -13887,13 +10992,13 @@
         <v>50</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E55" s="15">
         <v>25.215</v>
@@ -13947,7 +11052,7 @@
       <c r="U55" s="20"/>
       <c r="W55" s="77"/>
       <c r="X55" s="78" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y55" s="79">
         <f ca="1">IFERROR(RSQ(OFFSET(Y45,0,0,MIN(COUNT(Y45:Y51),COUNT($X$45:$X$51))), OFFSET($X$45,0,0,MIN(COUNT(Y45:Y51),COUNT($X$45:$X$51)))), "")</f>
@@ -13992,13 +11097,13 @@
         <v>51</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E56" s="15">
         <v>22.084</v>
@@ -14052,7 +11157,7 @@
       <c r="U56" s="20"/>
       <c r="W56" s="83"/>
       <c r="X56" s="84" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Y56" s="86">
         <f t="shared" ref="Y56:AB56" ca="1" si="8">IFERROR((10^(-1/Y53))-1, "")</f>
@@ -14100,13 +11205,13 @@
         <v>52</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E57" s="15">
         <v>22.074000000000002</v>
@@ -14185,13 +11290,13 @@
         <v>53</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E58" s="15">
         <v>22.86</v>
@@ -14269,13 +11374,13 @@
         <v>54</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E59" s="15">
         <v>22.721</v>
@@ -14328,7 +11433,7 @@
       </c>
       <c r="U59" s="20"/>
       <c r="W59" s="57" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AK59" s="151"/>
       <c r="AL59" s="34"/>
@@ -14344,13 +11449,13 @@
         <v>55</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E60" s="15">
         <v>21.588000000000001</v>
@@ -14403,7 +11508,7 @@
       </c>
       <c r="U60" s="20"/>
       <c r="W60" s="58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="X60" s="59">
         <v>1</v>
@@ -14455,13 +11560,13 @@
         <v>56</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E61" s="15">
         <v>21.544</v>
@@ -14514,7 +11619,7 @@
       </c>
       <c r="U61" s="20"/>
       <c r="W61" s="61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X61" s="130">
         <f>IFERROR(AVERAGEIF($J:$J,$J6,$E:$E),"")</f>
@@ -14578,13 +11683,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E62" s="15">
         <v>22.966000000000001</v>
@@ -14637,7 +11742,7 @@
       </c>
       <c r="U62" s="20"/>
       <c r="W62" s="97" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X62" s="130">
         <f>IFERROR(AVERAGEIF($J:$J,$J18,$E:$E),"")</f>
@@ -14701,13 +11806,13 @@
         <v>58</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E63" s="15">
         <v>23.08</v>
@@ -14760,7 +11865,7 @@
       </c>
       <c r="U63" s="20"/>
       <c r="W63" s="61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X63" s="130">
         <f>IFERROR(AVERAGEIF($J:$J,$J30,$E:$E),"")</f>
@@ -14824,13 +11929,13 @@
         <v>59</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E64" s="15">
         <v>21.302</v>
@@ -14883,7 +11988,7 @@
       </c>
       <c r="U64" s="20"/>
       <c r="W64" s="97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X64" s="130">
         <f>IFERROR(AVERAGEIF($J:$J,$J42,$E:$E),"")</f>
@@ -14947,16 +12052,16 @@
         <v>60</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F65" s="16">
         <v>0</v>
@@ -15006,7 +12111,7 @@
       </c>
       <c r="U65" s="20"/>
       <c r="W65" s="61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X65" s="130">
         <f>IFERROR(AVERAGEIF($J:$J,$J54,$E:$E),"")</f>
@@ -15070,13 +12175,13 @@
         <v>61</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E66" s="7">
         <v>24.081</v>
@@ -15135,7 +12240,7 @@
       </c>
       <c r="U66" s="12"/>
       <c r="W66" s="97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X66" s="130">
         <f>IFERROR(AVERAGEIF($J:$J,$J66,$E:$E),"")</f>
@@ -15199,13 +12304,13 @@
         <v>62</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E67" s="15">
         <v>24.183</v>
@@ -15258,7 +12363,7 @@
       </c>
       <c r="U67" s="20"/>
       <c r="W67" s="61" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X67" s="130">
         <f>IFERROR(AVERAGEIF($J:$J,$J78,$E:$E),"")</f>
@@ -15322,13 +12427,13 @@
         <v>63</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E68" s="15">
         <v>21.696000000000002</v>
@@ -15381,7 +12486,7 @@
       </c>
       <c r="U68" s="20"/>
       <c r="W68" s="97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X68" s="132">
         <f>IFERROR(AVERAGEIF($J:$J,$J90,$E:$E),"")</f>
@@ -15445,13 +12550,13 @@
         <v>64</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E69" s="15">
         <v>21.667999999999999</v>
@@ -15529,13 +12634,13 @@
         <v>65</v>
       </c>
       <c r="B70" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E70" s="15">
         <v>25.276</v>
@@ -15613,13 +12718,13 @@
         <v>66</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E71" s="15">
         <v>25.273</v>
@@ -15672,7 +12777,7 @@
       </c>
       <c r="U71" s="20"/>
       <c r="W71" s="57" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="X71" s="62"/>
       <c r="Y71" s="2"/>
@@ -15699,13 +12804,13 @@
         <v>67</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E72" s="15">
         <v>24.946999999999999</v>
@@ -15758,7 +12863,7 @@
       </c>
       <c r="U72" s="20"/>
       <c r="W72" s="58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="X72" s="59">
         <v>1</v>
@@ -15810,13 +12915,13 @@
         <v>68</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E73" s="15">
         <v>24.759</v>
@@ -15869,7 +12974,7 @@
       </c>
       <c r="U73" s="20"/>
       <c r="W73" s="61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X73" s="92" cm="1">
         <f t="array" aca="1" ref="X73:AI73" ca="1">TRANSPOSE(Q6:Q17)</f>
@@ -15933,13 +13038,13 @@
         <v>69</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E74" s="15">
         <v>23.712</v>
@@ -15992,7 +13097,7 @@
       </c>
       <c r="U74" s="20"/>
       <c r="W74" s="97" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X74" s="92" cm="1">
         <f t="array" aca="1" ref="X74:AI74" ca="1">TRANSPOSE(Q18:Q29)</f>
@@ -16056,13 +13161,13 @@
         <v>70</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E75" s="15">
         <v>23.63</v>
@@ -16115,7 +13220,7 @@
       </c>
       <c r="U75" s="20"/>
       <c r="W75" s="61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X75" s="92" cm="1">
         <f t="array" aca="1" ref="X75:AI75" ca="1">TRANSPOSE(Q30:Q41)</f>
@@ -16179,13 +13284,13 @@
         <v>71</v>
       </c>
       <c r="B76" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E76" s="15">
         <v>21.302</v>
@@ -16238,7 +13343,7 @@
       </c>
       <c r="U76" s="20"/>
       <c r="W76" s="97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X76" s="92" cm="1">
         <f t="array" aca="1" ref="X76:AI76" ca="1">TRANSPOSE(Q42:Q53)</f>
@@ -16302,16 +13407,16 @@
         <v>72</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F77" s="24">
         <v>60.307499999999997</v>
@@ -16361,7 +13466,7 @@
       </c>
       <c r="U77" s="28"/>
       <c r="W77" s="61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X77" s="92" cm="1">
         <f t="array" aca="1" ref="X77:AI77" ca="1">TRANSPOSE(Q54:Q65)</f>
@@ -16425,13 +13530,13 @@
         <v>73</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E78" s="15">
         <v>24.173999999999999</v>
@@ -16490,7 +13595,7 @@
       </c>
       <c r="U78" s="20"/>
       <c r="W78" s="97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X78" s="92" cm="1">
         <f t="array" aca="1" ref="X78:AI78" ca="1">TRANSPOSE(Q66:Q77)</f>
@@ -16554,13 +13659,13 @@
         <v>74</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E79" s="15">
         <v>24.056000000000001</v>
@@ -16613,7 +13718,7 @@
       </c>
       <c r="U79" s="20"/>
       <c r="W79" s="61" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X79" s="92" cm="1">
         <f t="array" aca="1" ref="X79:AI79" ca="1">TRANSPOSE(Q78:Q89)</f>
@@ -16677,13 +13782,13 @@
         <v>75</v>
       </c>
       <c r="B80" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E80" s="15">
         <v>22.603999999999999</v>
@@ -16736,7 +13841,7 @@
       </c>
       <c r="U80" s="20"/>
       <c r="W80" s="97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X80" s="104" cm="1">
         <f t="array" aca="1" ref="X80:AI80" ca="1">TRANSPOSE(Q90:Q101)</f>
@@ -16800,13 +13905,13 @@
         <v>76</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E81" s="15">
         <v>22.808</v>
@@ -16872,13 +13977,13 @@
         <v>77</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E82" s="15">
         <v>27.526</v>
@@ -16944,13 +14049,13 @@
         <v>78</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E83" s="15">
         <v>27.597999999999999</v>
@@ -17003,7 +14108,7 @@
       </c>
       <c r="U83" s="20"/>
       <c r="W83" s="57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AM83" s="2"/>
       <c r="AN83" s="2"/>
@@ -17015,13 +14120,13 @@
         <v>79</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E84" s="15">
         <v>24.741</v>
@@ -17074,7 +14179,7 @@
       </c>
       <c r="U84" s="20"/>
       <c r="W84" s="58" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="X84" s="59">
         <v>1</v>
@@ -17122,13 +14227,13 @@
         <v>80</v>
       </c>
       <c r="B85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E85" s="15">
         <v>24.475000000000001</v>
@@ -17181,7 +14286,7 @@
       </c>
       <c r="U85" s="20"/>
       <c r="W85" s="61" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X85" s="94" cm="1">
         <f t="array" aca="1" ref="X85:AI85" ca="1">TRANSPOSE(R6:R17)</f>
@@ -17241,13 +14346,13 @@
         <v>81</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E86" s="15">
         <v>25.7</v>
@@ -17300,7 +14405,7 @@
       </c>
       <c r="U86" s="20"/>
       <c r="W86" s="97" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X86" s="98" cm="1">
         <f t="array" aca="1" ref="X86:AI86" ca="1">TRANSPOSE(R18:R29)</f>
@@ -17360,13 +14465,13 @@
         <v>82</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E87" s="15">
         <v>25.637</v>
@@ -17419,7 +14524,7 @@
       </c>
       <c r="U87" s="20"/>
       <c r="W87" s="61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X87" s="98" cm="1">
         <f t="array" aca="1" ref="X87:AI87" ca="1">TRANSPOSE(R30:R41)</f>
@@ -17475,13 +14580,13 @@
         <v>83</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E88" s="15">
         <v>21.471</v>
@@ -17534,7 +14639,7 @@
       </c>
       <c r="U88" s="20"/>
       <c r="W88" s="97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X88" s="98" cm="1">
         <f t="array" aca="1" ref="X88:AI88" ca="1">TRANSPOSE(R42:R53)</f>
@@ -17590,16 +14695,16 @@
         <v>84</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F89" s="16">
         <v>0</v>
@@ -17649,7 +14754,7 @@
       </c>
       <c r="U89" s="20"/>
       <c r="W89" s="61" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X89" s="98" cm="1">
         <f t="array" aca="1" ref="X89:AI89" ca="1">TRANSPOSE(R54:R65)</f>
@@ -17705,13 +14810,13 @@
         <v>85</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E90" s="7">
         <v>23.667000000000002</v>
@@ -17770,7 +14875,7 @@
       </c>
       <c r="U90" s="12"/>
       <c r="W90" s="97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X90" s="98" cm="1">
         <f t="array" aca="1" ref="X90:AI90" ca="1">TRANSPOSE(R66:R77)</f>
@@ -17826,13 +14931,13 @@
         <v>86</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E91" s="15">
         <v>23.574999999999999</v>
@@ -17885,7 +14990,7 @@
       </c>
       <c r="U91" s="20"/>
       <c r="W91" s="61" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X91" s="98" cm="1">
         <f t="array" aca="1" ref="X91:AI91" ca="1">TRANSPOSE(R78:R89)</f>
@@ -17941,13 +15046,13 @@
         <v>87</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E92" s="15">
         <v>22.216000000000001</v>
@@ -18000,7 +15105,7 @@
       </c>
       <c r="U92" s="20"/>
       <c r="W92" s="97" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="X92" s="101" cm="1">
         <f t="array" aca="1" ref="X92:AI92" ca="1">TRANSPOSE(R90:R101)</f>
@@ -18056,13 +15161,13 @@
         <v>88</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E93" s="15">
         <v>22.263000000000002</v>
@@ -18120,13 +15225,13 @@
         <v>89</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E94" s="15">
         <v>32.929000000000002</v>
@@ -18184,13 +15289,13 @@
         <v>90</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E95" s="15">
         <v>32.817</v>
@@ -18252,13 +15357,13 @@
         <v>91</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E96" s="15">
         <v>24.882000000000001</v>
@@ -18317,13 +15422,13 @@
         <v>92</v>
       </c>
       <c r="B97" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E97" s="15">
         <v>24.937999999999999</v>
@@ -18381,13 +15486,13 @@
         <v>93</v>
       </c>
       <c r="B98" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E98" s="15">
         <v>24.41</v>
@@ -18445,13 +15550,13 @@
         <v>94</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E99" s="15">
         <v>24.393000000000001</v>
@@ -18509,13 +15614,13 @@
         <v>95</v>
       </c>
       <c r="B100" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E100" s="15">
         <v>21.584</v>
@@ -18573,16 +15678,16 @@
         <v>96</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F101" s="24">
         <v>0</v>
@@ -18653,73 +15758,90 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="J6:J101">
-    <cfRule type="expression" dxfId="211" priority="123">
+    <cfRule type="expression" dxfId="105" priority="123">
       <formula>_xlfn.MAXIFS(E:E,J:J,J6)-_xlfn.MINIFS(E:E,J:J,J6)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:O101">
-    <cfRule type="cellIs" dxfId="210" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="126" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q101">
-    <cfRule type="containsText" dxfId="209" priority="20" operator="containsText" text="#N/A">
+    <cfRule type="containsText" dxfId="103" priority="20" operator="containsText" text="#N/A">
       <formula>NOT(ISERROR(SEARCH("#N/A",Q6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S101">
-    <cfRule type="cellIs" dxfId="208" priority="124" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="124" operator="between">
       <formula>1.3</formula>
       <formula>9999999999999990</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="125" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="125" operator="between">
       <formula>0.01</formula>
       <formula>0.7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T101">
-    <cfRule type="cellIs" dxfId="206" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X32">
-    <cfRule type="expression" dxfId="205" priority="116">
+    <cfRule type="expression" dxfId="99" priority="116">
       <formula>_xlfn.MAXIFS(E:E,J:J,J6)-_xlfn.MINIFS(E:E,J:J,J6)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X33">
-    <cfRule type="expression" dxfId="204" priority="115">
+    <cfRule type="expression" dxfId="98" priority="115">
       <formula>_xlfn.MAXIFS(E:E,J:J,J18)-_xlfn.MINIFS(E:E,J:J,J18)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X34">
-    <cfRule type="expression" dxfId="203" priority="92">
+    <cfRule type="expression" dxfId="97" priority="92">
       <formula>_xlfn.MAXIFS(E:E,J:J,J30)-_xlfn.MINIFS(E:E,J:J,J30)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X35">
-    <cfRule type="expression" dxfId="202" priority="80">
+    <cfRule type="expression" dxfId="96" priority="80">
       <formula>_xlfn.MAXIFS(E:E,J:J,J42)-_xlfn.MINIFS(E:E,J:J,J42)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X36">
-    <cfRule type="expression" dxfId="201" priority="68">
+    <cfRule type="expression" dxfId="95" priority="68">
       <formula>_xlfn.MAXIFS(E:E,J:J,J54)-_xlfn.MINIFS(E:E,J:J,J54)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X37">
-    <cfRule type="expression" dxfId="200" priority="56">
+    <cfRule type="expression" dxfId="94" priority="56">
       <formula>_xlfn.MAXIFS(E:E,J:J,J66)-_xlfn.MINIFS(E:E,J:J,J66)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X38">
-    <cfRule type="expression" dxfId="199" priority="44">
+    <cfRule type="expression" dxfId="93" priority="44">
       <formula>_xlfn.MAXIFS(E:E,J:J,J78)-_xlfn.MINIFS(E:E,J:J,J78)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X39">
-    <cfRule type="expression" dxfId="198" priority="32">
+    <cfRule type="expression" dxfId="92" priority="32">
       <formula>_xlfn.MAXIFS(E:E,J:J,J90)-_xlfn.MINIFS(E:E,J:J,J90)&gt;0.3785</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6:AI13">
+    <cfRule type="containsText" dxfId="91" priority="2" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",X6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="3" operator="containsText" text="n/a">
+      <formula>NOT(ISERROR(SEARCH("n/a",X6)))</formula>
+    </cfRule>
+    <cfRule type="containsErrors" dxfId="89" priority="4">
+      <formula>ISERROR(X6)</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="88" priority="5">
+      <formula>LEN(TRIM(X6))=0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="1">
+      <formula>ISNUMBER(X6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X61:AI68">
@@ -18767,455 +15889,438 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y32">
-    <cfRule type="expression" dxfId="197" priority="114">
+    <cfRule type="expression" dxfId="86" priority="114">
       <formula>_xlfn.MAXIFS(E:E,J:J,J7)-_xlfn.MINIFS(E:E,J:J,J7)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y33">
-    <cfRule type="expression" dxfId="196" priority="103">
+    <cfRule type="expression" dxfId="85" priority="103">
       <formula>_xlfn.MAXIFS(E:E,J:J,J19)-_xlfn.MINIFS(E:E,J:J,J19)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y34">
-    <cfRule type="expression" dxfId="195" priority="91">
+    <cfRule type="expression" dxfId="84" priority="91">
       <formula>_xlfn.MAXIFS(E:E,J:J,J31)-_xlfn.MINIFS(E:E,J:J,J31)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y35">
-    <cfRule type="expression" dxfId="194" priority="79">
+    <cfRule type="expression" dxfId="83" priority="79">
       <formula>_xlfn.MAXIFS(E:E,J:J,J43)-_xlfn.MINIFS(E:E,J:J,J43)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y36">
-    <cfRule type="expression" dxfId="193" priority="67">
+    <cfRule type="expression" dxfId="82" priority="67">
       <formula>_xlfn.MAXIFS(E:E,J:J,J55)-_xlfn.MINIFS(E:E,J:J,J55)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y37">
-    <cfRule type="expression" dxfId="192" priority="55">
+    <cfRule type="expression" dxfId="81" priority="55">
       <formula>_xlfn.MAXIFS(E:E,J:J,J67)-_xlfn.MINIFS(E:E,J:J,J67)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y38">
-    <cfRule type="expression" dxfId="191" priority="43">
+    <cfRule type="expression" dxfId="80" priority="43">
       <formula>_xlfn.MAXIFS(E:E,J:J,J79)-_xlfn.MINIFS(E:E,J:J,J79)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39">
-    <cfRule type="expression" dxfId="190" priority="31">
+    <cfRule type="expression" dxfId="79" priority="31">
       <formula>_xlfn.MAXIFS(E:E,J:J,J91)-_xlfn.MINIFS(E:E,J:J,J91)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z32">
-    <cfRule type="expression" dxfId="189" priority="113">
+    <cfRule type="expression" dxfId="78" priority="113">
       <formula>_xlfn.MAXIFS(E:E,J:J,J8)-_xlfn.MINIFS(E:E,J:J,J8)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z33">
-    <cfRule type="expression" dxfId="188" priority="102">
+    <cfRule type="expression" dxfId="77" priority="102">
       <formula>_xlfn.MAXIFS(E:E,J:J,J20)-_xlfn.MINIFS(E:E,J:J,J20)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z34">
-    <cfRule type="expression" dxfId="187" priority="90">
+    <cfRule type="expression" dxfId="76" priority="90">
       <formula>_xlfn.MAXIFS(E:E,J:J,J32)-_xlfn.MINIFS(E:E,J:J,J32)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z35">
-    <cfRule type="expression" dxfId="186" priority="78">
+    <cfRule type="expression" dxfId="75" priority="78">
       <formula>_xlfn.MAXIFS(E:E,J:J,J44)-_xlfn.MINIFS(E:E,J:J,J44)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z36">
-    <cfRule type="expression" dxfId="185" priority="66">
+    <cfRule type="expression" dxfId="74" priority="66">
       <formula>_xlfn.MAXIFS(E:E,J:J,J56)-_xlfn.MINIFS(E:E,J:J,J56)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z37">
-    <cfRule type="expression" dxfId="184" priority="54">
+    <cfRule type="expression" dxfId="73" priority="54">
       <formula>_xlfn.MAXIFS(E:E,J:J,J68)-_xlfn.MINIFS(E:E,J:J,J68)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z38">
-    <cfRule type="expression" dxfId="183" priority="42">
+    <cfRule type="expression" dxfId="72" priority="42">
       <formula>_xlfn.MAXIFS(E:E,J:J,J80)-_xlfn.MINIFS(E:E,J:J,J80)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z39">
-    <cfRule type="expression" dxfId="182" priority="30">
+    <cfRule type="expression" dxfId="71" priority="30">
       <formula>_xlfn.MAXIFS(E:E,J:J,J92)-_xlfn.MINIFS(E:E,J:J,J92)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA32">
-    <cfRule type="expression" dxfId="181" priority="112">
+    <cfRule type="expression" dxfId="70" priority="112">
       <formula>_xlfn.MAXIFS(E:E,J:J,J9)-_xlfn.MINIFS(E:E,J:J,J9)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA33">
-    <cfRule type="expression" dxfId="180" priority="101">
+    <cfRule type="expression" dxfId="69" priority="101">
       <formula>_xlfn.MAXIFS(E:E,J:J,J21)-_xlfn.MINIFS(E:E,J:J,J21)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34">
-    <cfRule type="expression" dxfId="179" priority="89">
+    <cfRule type="expression" dxfId="68" priority="89">
       <formula>_xlfn.MAXIFS(E:E,J:J,J33)-_xlfn.MINIFS(E:E,J:J,J33)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA35">
-    <cfRule type="expression" dxfId="178" priority="77">
+    <cfRule type="expression" dxfId="67" priority="77">
       <formula>_xlfn.MAXIFS(E:E,J:J,J45)-_xlfn.MINIFS(E:E,J:J,J45)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA36">
-    <cfRule type="expression" dxfId="177" priority="65">
+    <cfRule type="expression" dxfId="66" priority="65">
       <formula>_xlfn.MAXIFS(E:E,J:J,J57)-_xlfn.MINIFS(E:E,J:J,J57)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA37">
-    <cfRule type="expression" dxfId="176" priority="53">
+    <cfRule type="expression" dxfId="65" priority="53">
       <formula>_xlfn.MAXIFS(E:E,J:J,J69)-_xlfn.MINIFS(E:E,J:J,J69)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA38">
-    <cfRule type="expression" dxfId="175" priority="41">
+    <cfRule type="expression" dxfId="64" priority="41">
       <formula>_xlfn.MAXIFS(E:E,J:J,J81)-_xlfn.MINIFS(E:E,J:J,J81)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39">
-    <cfRule type="expression" dxfId="174" priority="29">
+    <cfRule type="expression" dxfId="63" priority="29">
       <formula>_xlfn.MAXIFS(E:E,J:J,J93)-_xlfn.MINIFS(E:E,J:J,J93)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32">
-    <cfRule type="expression" dxfId="173" priority="111">
+    <cfRule type="expression" dxfId="62" priority="111">
       <formula>_xlfn.MAXIFS(E:E,J:J,J10)-_xlfn.MINIFS(E:E,J:J,J10)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB33">
-    <cfRule type="expression" dxfId="172" priority="100">
+    <cfRule type="expression" dxfId="61" priority="100">
       <formula>_xlfn.MAXIFS(E:E,J:J,J22)-_xlfn.MINIFS(E:E,J:J,J22)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="171" priority="88">
+    <cfRule type="expression" dxfId="60" priority="88">
       <formula>_xlfn.MAXIFS(E:E,J:J,J34)-_xlfn.MINIFS(E:E,J:J,J34)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB35">
-    <cfRule type="expression" dxfId="170" priority="76">
+    <cfRule type="expression" dxfId="59" priority="76">
       <formula>_xlfn.MAXIFS(E:E,J:J,J46)-_xlfn.MINIFS(E:E,J:J,J46)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB36">
-    <cfRule type="expression" dxfId="169" priority="64">
+    <cfRule type="expression" dxfId="58" priority="64">
       <formula>_xlfn.MAXIFS(E:E,J:J,J58)-_xlfn.MINIFS(E:E,J:J,J58)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB37">
-    <cfRule type="expression" dxfId="168" priority="52">
+    <cfRule type="expression" dxfId="57" priority="52">
       <formula>_xlfn.MAXIFS(E:E,J:J,J70)-_xlfn.MINIFS(E:E,J:J,J70)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB38">
-    <cfRule type="expression" dxfId="167" priority="40">
+    <cfRule type="expression" dxfId="56" priority="40">
       <formula>_xlfn.MAXIFS(E:E,J:J,J82)-_xlfn.MINIFS(E:E,J:J,J82)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB39">
-    <cfRule type="expression" dxfId="166" priority="28">
+    <cfRule type="expression" dxfId="55" priority="28">
       <formula>_xlfn.MAXIFS(E:E,J:J,J94)-_xlfn.MINIFS(E:E,J:J,J94)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC32">
-    <cfRule type="expression" dxfId="165" priority="110">
+    <cfRule type="expression" dxfId="54" priority="110">
       <formula>_xlfn.MAXIFS(E:E,J:J,J11)-_xlfn.MINIFS(E:E,J:J,J11)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC33">
-    <cfRule type="expression" dxfId="164" priority="99">
+    <cfRule type="expression" dxfId="53" priority="99">
       <formula>_xlfn.MAXIFS(E:E,J:J,J23)-_xlfn.MINIFS(E:E,J:J,J23)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC34">
-    <cfRule type="expression" dxfId="163" priority="87">
+    <cfRule type="expression" dxfId="52" priority="87">
       <formula>_xlfn.MAXIFS(E:E,J:J,J35)-_xlfn.MINIFS(E:E,J:J,J35)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC35">
-    <cfRule type="expression" dxfId="162" priority="75">
+    <cfRule type="expression" dxfId="51" priority="75">
       <formula>_xlfn.MAXIFS(E:E,J:J,J47)-_xlfn.MINIFS(E:E,J:J,J47)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC36">
-    <cfRule type="expression" dxfId="161" priority="63">
+    <cfRule type="expression" dxfId="50" priority="63">
       <formula>_xlfn.MAXIFS(E:E,J:J,J59)-_xlfn.MINIFS(E:E,J:J,J59)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC37">
-    <cfRule type="expression" dxfId="160" priority="51">
+    <cfRule type="expression" dxfId="49" priority="51">
       <formula>_xlfn.MAXIFS(E:E,J:J,J71)-_xlfn.MINIFS(E:E,J:J,J71)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC38">
-    <cfRule type="expression" dxfId="159" priority="39">
+    <cfRule type="expression" dxfId="48" priority="39">
       <formula>_xlfn.MAXIFS(E:E,J:J,J83)-_xlfn.MINIFS(E:E,J:J,J83)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC39">
-    <cfRule type="expression" dxfId="158" priority="27">
+    <cfRule type="expression" dxfId="47" priority="27">
       <formula>_xlfn.MAXIFS(E:E,J:J,J95)-_xlfn.MINIFS(E:E,J:J,J95)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33">
-    <cfRule type="expression" dxfId="157" priority="98">
+    <cfRule type="expression" dxfId="46" priority="98">
       <formula>_xlfn.MAXIFS(E:E,J:J,J24)-_xlfn.MINIFS(E:E,J:J,J24)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD34">
-    <cfRule type="expression" dxfId="156" priority="86">
+    <cfRule type="expression" dxfId="45" priority="86">
       <formula>_xlfn.MAXIFS(E:E,J:J,J36)-_xlfn.MINIFS(E:E,J:J,J36)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD35">
-    <cfRule type="expression" dxfId="155" priority="74">
+    <cfRule type="expression" dxfId="44" priority="74">
       <formula>_xlfn.MAXIFS(E:E,J:J,J48)-_xlfn.MINIFS(E:E,J:J,J48)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD36">
-    <cfRule type="expression" dxfId="154" priority="62">
+    <cfRule type="expression" dxfId="43" priority="62">
       <formula>_xlfn.MAXIFS(E:E,J:J,J60)-_xlfn.MINIFS(E:E,J:J,J60)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD37">
-    <cfRule type="expression" dxfId="153" priority="50">
+    <cfRule type="expression" dxfId="42" priority="50">
       <formula>_xlfn.MAXIFS(E:E,J:J,J72)-_xlfn.MINIFS(E:E,J:J,J72)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD38">
-    <cfRule type="expression" dxfId="152" priority="38">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>_xlfn.MAXIFS(E:E,J:J,J84)-_xlfn.MINIFS(E:E,J:J,J84)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD39">
-    <cfRule type="expression" dxfId="151" priority="26">
+    <cfRule type="expression" dxfId="40" priority="26">
       <formula>_xlfn.MAXIFS(E:E,J:J,J96)-_xlfn.MINIFS(E:E,J:J,J96)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE32">
-    <cfRule type="expression" dxfId="150" priority="108">
+    <cfRule type="expression" dxfId="39" priority="108">
       <formula>_xlfn.MAXIFS(E:E,J:J,J13)-_xlfn.MINIFS(E:E,J:J,J13)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE33">
-    <cfRule type="expression" dxfId="149" priority="97">
+    <cfRule type="expression" dxfId="38" priority="97">
       <formula>_xlfn.MAXIFS(E:E,J:J,J25)-_xlfn.MINIFS(E:E,J:J,J25)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE34">
-    <cfRule type="expression" dxfId="148" priority="85">
+    <cfRule type="expression" dxfId="37" priority="85">
       <formula>_xlfn.MAXIFS(E:E,J:J,J37)-_xlfn.MINIFS(E:E,J:J,J37)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE35">
-    <cfRule type="expression" dxfId="147" priority="73">
+    <cfRule type="expression" dxfId="36" priority="73">
       <formula>_xlfn.MAXIFS(E:E,J:J,J49)-_xlfn.MINIFS(E:E,J:J,J49)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE36">
-    <cfRule type="expression" dxfId="146" priority="61">
+    <cfRule type="expression" dxfId="35" priority="61">
       <formula>_xlfn.MAXIFS(E:E,J:J,J61)-_xlfn.MINIFS(E:E,J:J,J61)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE37">
-    <cfRule type="expression" dxfId="145" priority="49">
+    <cfRule type="expression" dxfId="34" priority="49">
       <formula>_xlfn.MAXIFS(E:E,J:J,J73)-_xlfn.MINIFS(E:E,J:J,J73)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE38">
-    <cfRule type="expression" dxfId="144" priority="37">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>_xlfn.MAXIFS(E:E,J:J,J85)-_xlfn.MINIFS(E:E,J:J,J85)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE39">
-    <cfRule type="expression" dxfId="143" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>_xlfn.MAXIFS(E:E,J:J,J97)-_xlfn.MINIFS(E:E,J:J,J97)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF32">
-    <cfRule type="expression" dxfId="142" priority="107">
+    <cfRule type="expression" dxfId="31" priority="107">
       <formula>"MAXIFS(E:E,J:J,J13)-MINIFS(E:E,J:J,J13)&gt;0.3785"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF33">
-    <cfRule type="expression" dxfId="141" priority="96">
+    <cfRule type="expression" dxfId="30" priority="96">
       <formula>_xlfn.MAXIFS(E:E,J:J,J26)-_xlfn.MINIFS(E:E,J:J,J26)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34">
-    <cfRule type="expression" dxfId="140" priority="84">
+    <cfRule type="expression" dxfId="29" priority="84">
       <formula>_xlfn.MAXIFS(E:E,J:J,J38)-_xlfn.MINIFS(E:E,J:J,J38)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF35">
-    <cfRule type="expression" dxfId="139" priority="72">
+    <cfRule type="expression" dxfId="28" priority="72">
       <formula>_xlfn.MAXIFS(E:E,J:J,J50)-_xlfn.MINIFS(E:E,J:J,J50)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF36">
-    <cfRule type="expression" dxfId="138" priority="60">
+    <cfRule type="expression" dxfId="27" priority="60">
       <formula>_xlfn.MAXIFS(E:E,J:J,J62)-_xlfn.MINIFS(E:E,J:J,J62)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF37">
-    <cfRule type="expression" dxfId="137" priority="48">
+    <cfRule type="expression" dxfId="26" priority="48">
       <formula>_xlfn.MAXIFS(E:E,J:J,J74)-_xlfn.MINIFS(E:E,J:J,J74)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF38">
-    <cfRule type="expression" dxfId="136" priority="36">
+    <cfRule type="expression" dxfId="25" priority="36">
       <formula>_xlfn.MAXIFS(E:E,J:J,J86)-_xlfn.MINIFS(E:E,J:J,J86)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF39">
-    <cfRule type="expression" dxfId="135" priority="24">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>_xlfn.MAXIFS(E:E,J:J,J98)-_xlfn.MINIFS(E:E,J:J,J98)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG32">
-    <cfRule type="expression" dxfId="134" priority="106">
+    <cfRule type="expression" dxfId="23" priority="106">
       <formula>_xlfn.MAXIFS(E:E,J:J,J15)-_xlfn.MINIFS(E:E,J:J,J15)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33">
-    <cfRule type="expression" dxfId="133" priority="95">
+    <cfRule type="expression" dxfId="22" priority="95">
       <formula>_xlfn.MAXIFS(E:E,J:J,J27)-_xlfn.MINIFS(E:E,J:J,J27)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34">
-    <cfRule type="expression" dxfId="132" priority="83">
+    <cfRule type="expression" dxfId="21" priority="83">
       <formula>_xlfn.MAXIFS(E:E,J:J,J39)-_xlfn.MINIFS(E:E,J:J,J39)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG35">
-    <cfRule type="expression" dxfId="131" priority="71">
+    <cfRule type="expression" dxfId="20" priority="71">
       <formula>_xlfn.MAXIFS(E:E,J:J,J51)-_xlfn.MINIFS(E:E,J:J,J51)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG36">
-    <cfRule type="expression" dxfId="130" priority="59">
+    <cfRule type="expression" dxfId="19" priority="59">
       <formula>_xlfn.MAXIFS(E:E,J:J,J63)-_xlfn.MINIFS(E:E,J:J,J63)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG37">
-    <cfRule type="expression" dxfId="129" priority="47">
+    <cfRule type="expression" dxfId="18" priority="47">
       <formula>_xlfn.MAXIFS(E:E,J:J,J75)-_xlfn.MINIFS(E:E,J:J,J75)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG38">
-    <cfRule type="expression" dxfId="128" priority="35">
+    <cfRule type="expression" dxfId="17" priority="35">
       <formula>_xlfn.MAXIFS(E:E,J:J,J87)-_xlfn.MINIFS(E:E,J:J,J87)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG39">
-    <cfRule type="expression" dxfId="127" priority="23">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>_xlfn.MAXIFS(E:E,J:J,J99)-_xlfn.MINIFS(E:E,J:J,J99)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH32">
-    <cfRule type="expression" dxfId="126" priority="105">
+    <cfRule type="expression" dxfId="15" priority="105">
       <formula>_xlfn.MAXIFS(E:E,J:J,J16)-_xlfn.MINIFS(E:E,J:J,J16)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH33">
-    <cfRule type="expression" dxfId="125" priority="94">
+    <cfRule type="expression" dxfId="14" priority="94">
       <formula>_xlfn.MAXIFS(E:E,J:J,J28)-_xlfn.MINIFS(E:E,J:J,J28)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH34">
-    <cfRule type="expression" dxfId="124" priority="82">
+    <cfRule type="expression" dxfId="13" priority="82">
       <formula>_xlfn.MAXIFS(E:E,J:J,J40)-_xlfn.MINIFS(E:E,J:J,J40)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH35">
-    <cfRule type="expression" dxfId="123" priority="70">
+    <cfRule type="expression" dxfId="12" priority="70">
       <formula>_xlfn.MAXIFS(E:E,J:J,J52)-_xlfn.MINIFS(E:E,J:J,J52)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH36">
-    <cfRule type="expression" dxfId="122" priority="58">
+    <cfRule type="expression" dxfId="11" priority="58">
       <formula>_xlfn.MAXIFS(E:E,J:J,J64)-_xlfn.MINIFS(E:E,J:J,J64)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH37">
-    <cfRule type="expression" dxfId="121" priority="46">
+    <cfRule type="expression" dxfId="10" priority="46">
       <formula>_xlfn.MAXIFS(E:E,J:J,J76)-_xlfn.MINIFS(E:E,J:J,J76)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH38">
-    <cfRule type="expression" dxfId="120" priority="34">
+    <cfRule type="expression" dxfId="9" priority="34">
       <formula>_xlfn.MAXIFS(E:E,J:J,J88)-_xlfn.MINIFS(E:E,J:J,J88)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH39">
-    <cfRule type="expression" dxfId="119" priority="22">
+    <cfRule type="expression" dxfId="8" priority="22">
       <formula>_xlfn.MAXIFS(E:E,J:J,J100)-_xlfn.MINIFS(E:E,J:J,J100)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI32">
-    <cfRule type="expression" dxfId="118" priority="104">
+    <cfRule type="expression" dxfId="7" priority="104">
       <formula>_xlfn.MAXIFS(E:E,J:J,J17)-_xlfn.MINIFS(E:E,J:J,J17)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI33">
-    <cfRule type="expression" dxfId="117" priority="93">
+    <cfRule type="expression" dxfId="6" priority="93">
       <formula>_xlfn.MAXIFS(E:E,J:J,J29)-_xlfn.MINIFS(E:E,J:J,J29)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI34">
-    <cfRule type="expression" dxfId="116" priority="81">
+    <cfRule type="expression" dxfId="5" priority="81">
       <formula>_xlfn.MAXIFS(E:E,J:J,J41)-_xlfn.MINIFS(E:E,J:J,J41)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI35">
-    <cfRule type="expression" dxfId="115" priority="69">
+    <cfRule type="expression" dxfId="4" priority="69">
       <formula>_xlfn.MAXIFS(E:E,J:J,J53)-_xlfn.MINIFS(E:E,J:J,J53)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI36">
-    <cfRule type="expression" dxfId="114" priority="57">
+    <cfRule type="expression" dxfId="3" priority="57">
       <formula>_xlfn.MAXIFS(E:E,J:J,J65)-_xlfn.MINIFS(E:E,J:J,J65)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI37">
-    <cfRule type="expression" dxfId="113" priority="45">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>_xlfn.MAXIFS(E:E,J:J,J77)-_xlfn.MINIFS(E:E,J:J,J77)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI38">
-    <cfRule type="expression" dxfId="112" priority="33">
+    <cfRule type="expression" dxfId="1" priority="33">
       <formula>_xlfn.MAXIFS(E:E,J:J,J89)-_xlfn.MINIFS(E:E,J:J,J89)&gt;0.3785</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI39">
-    <cfRule type="expression" dxfId="111" priority="21">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>_xlfn.MAXIFS(E:E,J:J,J101)-_xlfn.MINIFS(E:E,J:J,J101)&gt;0.3785</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X6:AI13">
-    <cfRule type="containsBlanks" dxfId="110" priority="5">
-      <formula>LEN(TRIM(X6))=0</formula>
-    </cfRule>
-    <cfRule type="containsErrors" dxfId="109" priority="4">
-      <formula>ISERROR(X6)</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="3" operator="containsText" text="n/a">
-      <formula>NOT(ISERROR(SEARCH("n/a",X6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="2" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",X6)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="1">
-      <formula>ISNUMBER(X6)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19240,10 +16345,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C1">
         <v>21.27</v>
@@ -19254,10 +16359,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C2">
         <v>21.879000000000001</v>
@@ -19268,10 +16373,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C3">
         <v>21.475000000000001</v>
@@ -19282,10 +16387,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C4">
         <v>21.466000000000001</v>
@@ -19296,10 +16401,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C5">
         <v>13.430999999999999</v>
@@ -19310,10 +16415,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C6">
         <v>13.622</v>
@@ -19324,10 +16429,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C7">
         <v>24.148</v>
@@ -19338,10 +16443,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C8">
         <v>24.302</v>
@@ -19352,10 +16457,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C9">
         <v>24.309000000000001</v>
@@ -19366,10 +16471,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C10">
         <v>24.300999999999998</v>
@@ -19380,10 +16485,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C11">
         <v>24.713000000000001</v>
@@ -19394,13 +16499,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D12">
         <v>81.205070000000006</v>
@@ -19408,10 +16513,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C13">
         <v>25.375</v>
@@ -19422,10 +16527,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C14">
         <v>25.347000000000001</v>
@@ -19436,10 +16541,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C15">
         <v>23.881</v>
@@ -19450,10 +16555,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C16">
         <v>23.812999999999999</v>
@@ -19464,10 +16569,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C17">
         <v>15.765000000000001</v>
@@ -19478,10 +16583,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C18">
         <v>15.782999999999999</v>
@@ -19492,10 +16597,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C19">
         <v>24.158999999999999</v>
@@ -19506,10 +16611,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C20">
         <v>24.151</v>
@@ -19520,10 +16625,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C21">
         <v>25.364000000000001</v>
@@ -19534,10 +16639,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C22">
         <v>25.376000000000001</v>
@@ -19548,10 +16653,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C23">
         <v>25.896999999999998</v>
@@ -19562,13 +16667,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -19576,10 +16681,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C25">
         <v>23.672999999999998</v>
@@ -19590,10 +16695,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C26">
         <v>23.577999999999999</v>
@@ -19604,10 +16709,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C27">
         <v>22.611999999999998</v>
@@ -19618,10 +16723,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C28">
         <v>22.670999999999999</v>
@@ -19632,10 +16737,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C29">
         <v>18.303000000000001</v>
@@ -19646,10 +16751,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C30">
         <v>18.045999999999999</v>
@@ -19660,10 +16765,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C31">
         <v>24.056000000000001</v>
@@ -19674,10 +16779,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C32">
         <v>24.073</v>
@@ -19688,10 +16793,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C33">
         <v>25.183</v>
@@ -19702,10 +16807,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C34">
         <v>25.309000000000001</v>
@@ -19716,10 +16821,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C35">
         <v>24.561</v>
@@ -19730,13 +16835,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -19744,10 +16849,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C37">
         <v>25.425000000000001</v>
@@ -19758,10 +16863,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C38">
         <v>25.302</v>
@@ -19772,10 +16877,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C39">
         <v>22.402999999999999</v>
@@ -19786,10 +16891,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C40">
         <v>22.425000000000001</v>
@@ -19800,10 +16905,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C41">
         <v>20.561</v>
@@ -19814,10 +16919,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C42">
         <v>20.492000000000001</v>
@@ -19828,10 +16933,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C43">
         <v>21.234000000000002</v>
@@ -19842,10 +16947,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C44">
         <v>21.506</v>
@@ -19856,10 +16961,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C45">
         <v>26.407</v>
@@ -19870,10 +16975,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C46">
         <v>26.423999999999999</v>
@@ -19884,10 +16989,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C47">
         <v>24.638999999999999</v>
@@ -19898,13 +17003,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -19912,10 +17017,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C49">
         <v>25.300999999999998</v>
@@ -19926,10 +17031,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C50">
         <v>25.215</v>
@@ -19940,10 +17045,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C51">
         <v>22.084</v>
@@ -19954,10 +17059,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C52">
         <v>22.074000000000002</v>
@@ -19968,10 +17073,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C53">
         <v>22.86</v>
@@ -19982,10 +17087,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C54">
         <v>22.721</v>
@@ -19996,10 +17101,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C55">
         <v>21.588000000000001</v>
@@ -20010,10 +17115,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C56">
         <v>21.544</v>
@@ -20024,10 +17129,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C57">
         <v>22.966000000000001</v>
@@ -20038,10 +17143,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C58">
         <v>23.08</v>
@@ -20052,10 +17157,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C59">
         <v>21.302</v>
@@ -20066,13 +17171,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B60" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -20080,10 +17185,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B61" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C61">
         <v>24.081</v>
@@ -20094,10 +17199,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C62">
         <v>24.183</v>
@@ -20108,10 +17213,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C63">
         <v>21.696000000000002</v>
@@ -20122,10 +17227,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C64">
         <v>21.667999999999999</v>
@@ -20136,10 +17241,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C65">
         <v>25.276</v>
@@ -20150,10 +17255,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B66" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C66">
         <v>25.273</v>
@@ -20164,10 +17269,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C67">
         <v>24.946999999999999</v>
@@ -20178,10 +17283,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C68">
         <v>24.759</v>
@@ -20192,10 +17297,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C69">
         <v>23.712</v>
@@ -20206,10 +17311,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C70">
         <v>23.63</v>
@@ -20220,10 +17325,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C71">
         <v>21.302</v>
@@ -20234,13 +17339,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D72">
         <v>60.307499999999997</v>
@@ -20248,10 +17353,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C73">
         <v>24.173999999999999</v>
@@ -20262,10 +17367,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C74">
         <v>24.056000000000001</v>
@@ -20276,10 +17381,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C75">
         <v>22.603999999999999</v>
@@ -20290,10 +17395,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C76">
         <v>22.808</v>
@@ -20304,10 +17409,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C77">
         <v>27.526</v>
@@ -20318,10 +17423,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C78">
         <v>27.597999999999999</v>
@@ -20332,10 +17437,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C79">
         <v>24.741</v>
@@ -20346,10 +17451,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C80">
         <v>24.475000000000001</v>
@@ -20360,10 +17465,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B81" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C81">
         <v>25.7</v>
@@ -20374,10 +17479,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C82">
         <v>25.637</v>
@@ -20388,10 +17493,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C83">
         <v>21.471</v>
@@ -20402,13 +17507,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -20416,10 +17521,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C85">
         <v>23.667000000000002</v>
@@ -20430,10 +17535,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C86">
         <v>23.574999999999999</v>
@@ -20444,10 +17549,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B87" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C87">
         <v>22.216000000000001</v>
@@ -20458,10 +17563,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C88">
         <v>22.263000000000002</v>
@@ -20472,10 +17577,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C89">
         <v>32.929000000000002</v>
@@ -20486,10 +17591,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B90" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C90">
         <v>32.817</v>
@@ -20500,10 +17605,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C91">
         <v>24.882000000000001</v>
@@ -20514,10 +17619,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C92">
         <v>24.937999999999999</v>
@@ -20528,10 +17633,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C93">
         <v>24.41</v>
@@ -20542,10 +17647,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C94">
         <v>24.393000000000001</v>
@@ -20556,10 +17661,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B95" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C95">
         <v>21.584</v>
@@ -20570,13 +17675,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B96" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D96">
         <v>0</v>

--- a/app/data/241220_NfLPLADx_Plasma_demo/251006/241220_NfLPLADx_Plasma_demo.xlsx
+++ b/app/data/241220_NfLPLADx_Plasma_demo/251006/241220_NfLPLADx_Plasma_demo.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{E06BAA93-A5C0-8B44-A78C-82EB619886CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72BF2A92-912D-436B-92E1-F99D1E9369F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4D99390B-9292-4C1E-BC74-DE0E0B893356}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D99390B-9292-4C1E-BC74-DE0E0B893356}"/>
   </bookViews>
   <sheets>
     <sheet name="e104" sheetId="1" r:id="rId1"/>
@@ -5779,8 +5779,8 @@
   </sheetPr>
   <dimension ref="A1:AR112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/data/241220_NfLPLADx_Plasma_demo/251006/241220_NfLPLADx_Plasma_demo.xlsx
+++ b/app/data/241220_NfLPLADx_Plasma_demo/251006/241220_NfLPLADx_Plasma_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wehieduau-my.sharepoint.com/personal/smith_j_wehi_edu_au/Documents/Documents/Testing-Git/proxipal/app/data/241220_NfLPLADx_Plasma_demo/251006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{E06BAA93-A5C0-8B44-A78C-82EB619886CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72BF2A92-912D-436B-92E1-F99D1E9369F1}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{E06BAA93-A5C0-8B44-A78C-82EB619886CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A166AC5A-FFF9-4FB2-8B82-76060BD4B031}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D99390B-9292-4C1E-BC74-DE0E0B893356}"/>
   </bookViews>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="226">
   <si>
     <t>Experiment</t>
   </si>
@@ -5779,8 +5779,8 @@
   </sheetPr>
   <dimension ref="A1:AR112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6651,9 +6651,7 @@
       <c r="AH11" s="156" t="s">
         <v>197</v>
       </c>
-      <c r="AI11" s="141" t="s">
-        <v>219</v>
-      </c>
+      <c r="AI11" s="141"/>
       <c r="AK11" s="149" t="s">
         <v>212</v>
       </c>
@@ -13424,8 +13422,8 @@
       <c r="G77" s="25">
         <v>0.1</v>
       </c>
-      <c r="H77" s="50" t="str">
-        <v>unused</v>
+      <c r="H77" s="50">
+        <v>0</v>
       </c>
       <c r="I77" s="26"/>
       <c r="J77" s="27">
